--- a/src/analysis_examples/er4000/results_er4000/animal_01/cosinor_per_day_fixed_period_animal_01_tmp.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_01/cosinor_per_day_fixed_period_animal_01_tmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -574,60 +574,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.50000000000023</v>
+        <v>24.04000000000032</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05669310300101238</v>
+        <v>1.656664596616508e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05669310300101238</v>
+        <v>1.656664596616508e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>0.3315411846473815</v>
+        <v>0.7841938373852422</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.005981096917757611, 0.6690634662125206]</t>
+          <t>[0.5371873086864056, 1.0312003660840787]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.05382930280801324</v>
+        <v>1.544746977222289e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05382930280801324</v>
+        <v>1.544746977222289e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1257894956392311</v>
+        <v>1.239026532046426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-1.54092132158058, 1.2893423303021176]</t>
+          <t>[0.8993948938205021, 1.578658170272349]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.8551167190280873</v>
+        <v>1.906840689791522e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8551167190280873</v>
+        <v>1.906840689791522e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>35.41682314196088</v>
+        <v>36.86183533579593</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[35.22536026383318, 35.60828602008857]</t>
+          <t>[36.72582401172022, 36.99784665987164]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4704704704704739</v>
+        <v>19.29937937937963</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.822322322322373</v>
+        <v>17.99991991992016</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.763263263263321</v>
+        <v>20.59883883883911</v>
       </c>
     </row>
     <row r="3">
@@ -660,60 +660,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.50000000000023</v>
+        <v>24.04000000000032</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.409171063311177e-06</v>
+        <v>2.228062956355359e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>2.409171063311177e-06</v>
+        <v>2.228062956355359e-09</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.2894787205633023</v>
+        <v>0.8770742000535741</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.17581670686616846, 0.40314073426043606]</t>
+          <t>[0.6996909045336217, 1.0544574955735264]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.986588501818765e-05</v>
+        <v>1.186490905524806e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>2.986588501818765e-05</v>
+        <v>1.186490905524806e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>0.874236994692656</v>
+        <v>1.578658170272349</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.48428955821104047, 1.2641844311742716]</t>
+          <t>[1.3522370781217337, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0001335065479148856</v>
+        <v>2.066125048827416e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001335065479148856</v>
+        <v>2.066125048827416e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>35.16179462882178</v>
+        <v>36.92768026323239</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[35.10219715055797, 35.22139210708559]</t>
+          <t>[36.80955787284822, 37.04580265361656]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.23023023023043</v>
+        <v>17.99991991992016</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.77177177177196</v>
+        <v>17.13361361361384</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.6886886886889</v>
+        <v>18.86622622622647</v>
       </c>
     </row>
     <row r="4">
@@ -746,60 +746,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.50000000000023</v>
+        <v>24.04000000000032</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.464255856593489e-06</v>
+        <v>1.109456970738165e-11</v>
       </c>
       <c r="I4" t="n">
-        <v>2.464255856593489e-06</v>
+        <v>1.109456970738165e-11</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.4248504856472728</v>
+        <v>0.9904826675177532</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.259153886644075, 0.5905470846504706]</t>
+          <t>[0.8224674483898617, 1.1584978866456446]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.747335170649734e-05</v>
+        <v>4.900968519905291e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>2.747335170649734e-05</v>
+        <v>4.900968519905291e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>2.597553084950119</v>
+        <v>1.364816027685657</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.1824477493406578, 3.012658420559581]</t>
+          <t>[1.1887107337907326, 1.5409213215805808]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.609912203548447e-11</v>
+        <v>2.673417043297377e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>1.609912203548447e-11</v>
+        <v>2.673417043297377e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>35.32251629496683</v>
+        <v>36.81610323197825</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[35.234637288712534, 35.41039530122113]</t>
+          <t>[36.715832112757795, 36.9163743511987]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.78478478478492</v>
+        <v>18.81809809809835</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.23223223223236</v>
+        <v>18.14430430430454</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.33733733733749</v>
+        <v>19.49189189189215</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -832,60 +832,60 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.50000000000023</v>
+        <v>24.04000000000032</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02206838442317827</v>
+        <v>5.452960305518673e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02206838442317827</v>
+        <v>5.452960305518673e-11</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.3926500168187346</v>
+        <v>1.178567563607857</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.04007635174175661, 0.7452236818957125]</t>
+          <t>[0.983730328264496, 1.373404798951217]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.03075294231126691</v>
+        <v>3.036348950047341e-11</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03075294231126691</v>
+        <v>3.036348950047341e-11</v>
       </c>
       <c r="P5" t="n">
-        <v>1.088079137279348</v>
+        <v>1.578658170272349</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.09434212172942225, 2.270500396288119]</t>
+          <t>[1.3899739268135018, 1.7673424137311962]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.06938909831062645</v>
+        <v>5.950795411990839e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06938909831062645</v>
+        <v>5.950795411990839e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>35.60248476059665</v>
+        <v>36.65113824556774</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[35.41292705559583, 35.792042465597476]</t>
+          <t>[36.52131135015548, 36.78096514098001]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>19.43043043043062</v>
+        <v>17.99991991992016</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00800800800816</v>
+        <v>17.27799799799822</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.85285285285309</v>
+        <v>18.72184184184209</v>
       </c>
     </row>
     <row r="6">
@@ -918,60 +918,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.50000000000023</v>
+        <v>24.04000000000032</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.185407327852772e-11</v>
+        <v>2.177552238524783e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>1.185407327852772e-11</v>
+        <v>2.177552238524783e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.7827806306319331</v>
+        <v>1.32289683488553</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.6317494492494049, 0.9338118120144614]</t>
+          <t>[0.9815685094664275, 1.6642251603046319]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.132247959949154e-10</v>
+        <v>7.303690474635971e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>5.132247959949154e-10</v>
+        <v>7.303690474635971e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>1.088079137279348</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.8993948938205012, 1.2767633807381955]</t>
+          <t>[1.1132370364071944, 1.6667108172198093]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.366751653137271e-11</v>
+        <v>8.985354682522484e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>7.366751653137271e-11</v>
+        <v>8.985354682522484e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>35.96338363806932</v>
+        <v>36.76970950785451</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[35.884326391251996, 36.04244088488664]</t>
+          <t>[36.56642744590839, 36.97299156980064]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>19.43043043043062</v>
+        <v>18.72184184184209</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.72472472472491</v>
+        <v>17.66302302302326</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.13613613613634</v>
+        <v>19.78066066066092</v>
       </c>
     </row>
     <row r="7">
@@ -999,65 +999,65 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.50000000000023</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002572517320429291</v>
+        <v>2.428009127086739e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002572517320429291</v>
+        <v>2.428009127086739e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.5206507700662613</v>
+        <v>1.568495610487723</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.16933919912402473, 0.8719623410084978]</t>
+          <t>[1.1682967580651322, 1.9686944629103138]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.005652091981930507</v>
+        <v>6.09893950898055e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005652091981930507</v>
+        <v>6.09893950898055e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>2.018921405009657</v>
+        <v>2.635289933641888</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.3019212798660398, 2.7359215301532736]</t>
+          <t>[2.371131992799503, 2.8994478744842738]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.203359257441534e-06</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="S7" t="n">
-        <v>8.203359257441534e-06</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="T7" t="n">
-        <v>35.82033690983403</v>
+        <v>36.50677106684414</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[35.630737920045064, 36.00993589962299]</t>
+          <t>[36.294119114371824, 36.71942301931645]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.94894894894911</v>
+        <v>13.84104104104121</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.2672672672674</v>
+        <v>12.83875875875891</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.63063063063082</v>
+        <v>14.8433233233235</v>
       </c>
     </row>
     <row r="8">
@@ -1085,65 +1085,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.50000000000023</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007725807531603346</v>
+        <v>1.148037975795546e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0007725807531603346</v>
+        <v>1.148037975795546e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.2473866472586188</v>
+        <v>1.213562580666519</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.08915133812583775, 0.40562195639139986]</t>
+          <t>[0.8926354486910313, 1.5344897126420065]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.003819918103208808</v>
+        <v>1.08307865120949e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003819918103208808</v>
+        <v>1.08307865120949e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>0.836500146000887</v>
+        <v>2.773658378845043</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.2830263651882694, 1.3899739268135045]</t>
+          <t>[2.4843425388748113, 3.062974218815274]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.004910170656325041</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004910170656325041</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="T8" t="n">
-        <v>35.46191267364725</v>
+        <v>36.36548574033616</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[35.38168033717517, 35.54214501011933]</t>
+          <t>[36.18559476033849, 36.545376720333834]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>20.37137137137157</v>
+        <v>13.31603603603619</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.30130130130147</v>
+        <v>12.21829829829844</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.44144144144166</v>
+        <v>14.41377377377395</v>
       </c>
     </row>
     <row r="9">
@@ -1167,69 +1167,69 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.183539885886232</v>
+        <v>1.740666601524055e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.183539885886232</v>
+        <v>1.740666601524055e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.166709094137552</v>
+        <v>1.332404711957135</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.05050644407527116, 0.3839246323503751]</t>
+          <t>[0.8085090070843961, 1.8563004168298747]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1254137277641143</v>
+        <v>3.038946403521869e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1254137277641143</v>
+        <v>3.038946403521869e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.553500271144502</v>
+        <v>2.52207938756658</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.484316048542925, 4.591316590831929]</t>
+          <t>[2.132131951084964, 2.912026824048197]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2996376024669287</v>
+        <v>8.637979220793568e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2996376024669287</v>
+        <v>8.637979220793568e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>35.47362369228005</v>
+        <v>36.33666738725925</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[35.34604761405653, 35.60119977050357]</t>
+          <t>[36.068302640051655, 36.60503213446685]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18.00584584584607</v>
+        <v>14.27059059059076</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.440920920921004</v>
+        <v>12.79103103103118</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.57077077077114</v>
+        <v>15.75015015015034</v>
       </c>
     </row>
     <row r="10">
@@ -1257,65 +1257,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0003499289695183538</v>
+        <v>3.416177479043103e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003499289695183538</v>
+        <v>3.416177479043103e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.4810687764659036</v>
+        <v>1.210199617094911</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.20773971632765864, 0.7543978366041486]</t>
+          <t>[0.6297359868050947, 1.7906632473847282]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001459721956448501</v>
+        <v>0.0002911100904772201</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001459721956448501</v>
+        <v>0.0002911100904772201</v>
       </c>
       <c r="P10" t="n">
-        <v>2.018921405009657</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.4277107755052718, 2.6101320345140415]</t>
+          <t>[2.0692372032653497, 3.025237370123504]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>5.260395929962414e-07</v>
+        <v>3.112790025738832e-10</v>
       </c>
       <c r="S10" t="n">
-        <v>5.260395929962414e-07</v>
+        <v>3.112790025738832e-10</v>
       </c>
       <c r="T10" t="n">
-        <v>35.54611841636979</v>
+        <v>36.16702383253333</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[35.4013998558154, 35.690836976924174]</t>
+          <t>[35.86612115108525, 36.46792651398141]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>16.2339939939942</v>
+        <v>14.17513513513531</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.98326326326344</v>
+        <v>12.36148148148163</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.48472472472496</v>
+        <v>15.98878878878898</v>
       </c>
     </row>
     <row r="11">
@@ -1339,69 +1339,69 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07780257753936837</v>
+        <v>7.687129577327312e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07780257753936837</v>
+        <v>7.687129577327312e-08</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.2255708794402231</v>
+        <v>1.081198973276436</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.03343756539342735, 0.4845793242738736]</t>
+          <t>[0.7407181155234142, 1.4216798310294578]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.08444911433200097</v>
+        <v>1.539718218035446e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08444911433200097</v>
+        <v>1.539718218035446e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>2.044079304137503</v>
+        <v>2.622710984077965</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.1823947686768852, 3.9057638395981202]</t>
+          <t>[2.295658295415965, 2.949763672739965]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.03292845992554749</v>
+        <v>1.372235658436693e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03292845992554749</v>
+        <v>1.372235658436693e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>35.47595139787002</v>
+        <v>36.20923926061093</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[35.338233438560714, 35.613669357179326]</t>
+          <t>[36.03030340126706, 36.388175119954795]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.13821821821842</v>
+        <v>13.88876876876894</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.050810810810926</v>
+        <v>12.647847847848</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.22562562562591</v>
+        <v>15.12968968968987</v>
       </c>
     </row>
     <row r="12">
@@ -1429,65 +1429,65 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.69499800074524e-05</v>
+        <v>1.654887378910175e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>1.69499800074524e-05</v>
+        <v>1.654887378910175e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.7781593774276487</v>
+        <v>1.141058543442494</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.4316646966975455, 1.124654058157752]</t>
+          <t>[0.7376425404099471, 1.5444745464750405]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0001309732292453791</v>
+        <v>7.724032635048061e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001309732292453791</v>
+        <v>7.724032635048061e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>2.031500354573581</v>
+        <v>2.849132076228581</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.5535002711445038, 2.5095004380026573]</t>
+          <t>[2.4717635893108882, 3.226500563146274]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.607613508980421e-08</v>
+        <v>4.443112544549876e-13</v>
       </c>
       <c r="S12" t="n">
-        <v>1.607613508980421e-08</v>
+        <v>4.443112544549876e-13</v>
       </c>
       <c r="T12" t="n">
-        <v>35.92615029204757</v>
+        <v>36.19188235388287</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[35.74293824768115, 36.109362336413994]</t>
+          <t>[35.96236986455976, 36.42139484320599]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>16.18610610610631</v>
+        <v>13.02966966966983</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.36636636636655</v>
+        <v>11.59783783783798</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.00584584584607</v>
+        <v>14.46150150150168</v>
       </c>
     </row>
     <row r="13">
@@ -1511,69 +1511,69 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0816504565406343</v>
+        <v>3.936579153318576e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0816504565406343</v>
+        <v>3.936579153318576e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.3654544594160463</v>
+        <v>1.242483791936156</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.0245831629834683, 0.7554920818155608]</t>
+          <t>[0.7539265193539357, 1.7310410645183758]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0648374388425228</v>
+        <v>3.040337525961334e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0648374388425228</v>
+        <v>3.040337525961334e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>1.427710775505272</v>
+        <v>2.786237328408966</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.044026323473730145, 2.8994478744842738]</t>
+          <t>[2.371131992799503, 3.201342664018428]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.05661471585156153</v>
+        <v>4.272804332572377e-12</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05661471585156153</v>
+        <v>4.272804332572377e-12</v>
       </c>
       <c r="T13" t="n">
-        <v>35.97857457346335</v>
+        <v>36.44812108414354</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[35.75313900451184, 36.20401014241486]</t>
+          <t>[36.18307475933817, 36.713167408948905]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18.48472472472496</v>
+        <v>13.26830830830847</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.881841841842</v>
+        <v>11.69329329329343</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.08760760760791</v>
+        <v>14.8433233233235</v>
       </c>
     </row>
     <row r="14">
@@ -1597,69 +1597,69 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04038207608742184</v>
+        <v>2.410350260484417e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04038207608742184</v>
+        <v>2.410350260484417e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.4303188951274208</v>
+        <v>0.9297246296485824</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.008706746734098658, 0.8693445369889403]</t>
+          <t>[0.5028649748495688, 1.356584284447596]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.05430264396842444</v>
+        <v>0.0001832444922111875</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05430264396842444</v>
+        <v>0.0001832444922111875</v>
       </c>
       <c r="P14" t="n">
-        <v>2.673026782333658</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.1383949355350396, 4.2076586291322755]</t>
+          <t>[1.9560266571900407, 2.8365531266646578]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.001597022701779194</v>
+        <v>2.121922637599027e-10</v>
       </c>
       <c r="S14" t="n">
-        <v>0.001597022701779194</v>
+        <v>2.121922637599027e-10</v>
       </c>
       <c r="T14" t="n">
-        <v>35.59466879946955</v>
+        <v>36.55158557761943</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[35.363948179659204, 35.8253894192799]</t>
+          <t>[36.326571492765844, 36.776599662473025]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>13.743823823824</v>
+        <v>14.74786786786805</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.9015015015016</v>
+        <v>13.07739739739756</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.58614614614639</v>
+        <v>16.41833833833854</v>
       </c>
     </row>
     <row r="15">
@@ -1687,65 +1687,65 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>6.749709680065052e-10</v>
+        <v>0.0007871437128128544</v>
       </c>
       <c r="I15" t="n">
-        <v>6.749709680065052e-10</v>
+        <v>0.0007871437128128544</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1.008415431215713</v>
+        <v>0.9827128704118948</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.7602223663152259, 1.2566084961162005]</t>
+          <t>[0.39955393790967975, 1.5658718029141099]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.39052605990986e-08</v>
+        <v>0.002109980442293047</v>
       </c>
       <c r="O15" t="n">
-        <v>3.39052605990986e-08</v>
+        <v>0.002109980442293047</v>
       </c>
       <c r="P15" t="n">
-        <v>2.207605648468503</v>
+        <v>2.798816277972889</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.9560266571900407, 2.459184639746965]</t>
+          <t>[2.144710900648888, 3.4529216552968895]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.331468351712829e-14</v>
+        <v>1.435278695893771e-08</v>
       </c>
       <c r="S15" t="n">
-        <v>2.331468351712829e-14</v>
+        <v>1.435278695893771e-08</v>
       </c>
       <c r="T15" t="n">
-        <v>35.87139254045837</v>
+        <v>36.41741887293873</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[35.744494124078045, 35.9982909568387]</t>
+          <t>[36.09760775625966, 36.73722998961779]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>15.51567567567587</v>
+        <v>13.22058058058074</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5579179179181</v>
+        <v>10.73873873873887</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.47343343343364</v>
+        <v>15.70242242242261</v>
       </c>
     </row>
     <row r="16">
@@ -1773,65 +1773,65 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.096749682183429e-07</v>
+        <v>0.0001495995263749439</v>
       </c>
       <c r="I16" t="n">
-        <v>1.096749682183429e-07</v>
+        <v>0.0001495995263749439</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0.9062099387953424</v>
+        <v>1.070808882675067</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0.6137354989949309, 1.198684378595754]</t>
+          <t>[0.5663418835660785, 1.575275881784055]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.190808719548798e-06</v>
+        <v>0.0002412798959414708</v>
       </c>
       <c r="O16" t="n">
-        <v>2.190808719548798e-06</v>
+        <v>0.0002412798959414708</v>
       </c>
       <c r="P16" t="n">
-        <v>2.132131951084965</v>
+        <v>2.937184723176043</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.8050792624229643, 2.459184639746965]</t>
+          <t>[2.3837109423634266, 3.490658503988659]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>7.434275417494973e-12</v>
+        <v>3.35566463505188e-10</v>
       </c>
       <c r="S16" t="n">
-        <v>7.434275417494973e-12</v>
+        <v>3.35566463505188e-10</v>
       </c>
       <c r="T16" t="n">
-        <v>36.23933271854253</v>
+        <v>36.40472800794508</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[36.08643950949849, 36.392225927586566]</t>
+          <t>[36.10448997348138, 36.704966042408785]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>15.8030030030032</v>
+        <v>12.69557557557573</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5579179179181</v>
+        <v>10.59555555555568</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.0480880880883</v>
+        <v>14.79559559559577</v>
       </c>
     </row>
     <row r="17">
@@ -1859,65 +1859,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01671700457447911</v>
+        <v>1.143772282441446e-07</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01671700457447911</v>
+        <v>1.143772282441446e-07</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.4230630917856324</v>
+        <v>1.212928917647886</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.08514994365825856, 0.7609762399130062]</t>
+          <t>[0.8474579253017431, 1.5783999099940296]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.0165828686515761</v>
+        <v>8.063531486968145e-07</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0165828686515761</v>
+        <v>8.063531486968145e-07</v>
       </c>
       <c r="P17" t="n">
-        <v>2.974921571867812</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.8553950606786564, 4.094448083056967]</t>
+          <t>[2.496921488438734, 3.1761847648905817]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.749939233275377e-05</v>
+        <v>6.17284001691587e-14</v>
       </c>
       <c r="S17" t="n">
-        <v>1.749939233275377e-05</v>
+        <v>6.17284001691587e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>35.36566311291705</v>
+        <v>36.52017880902905</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[35.16886873750592, 35.56245748832818]</t>
+          <t>[36.314244868123836, 36.72611274993426]</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>12.59451451451467</v>
+        <v>13.07739739739756</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.3324924924926</v>
+        <v>11.78874874874889</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.85653653653675</v>
+        <v>14.36604604604622</v>
       </c>
     </row>
     <row r="18">
@@ -1941,69 +1941,69 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1680819807831528</v>
+        <v>0.0171980861895451</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1680819807831528</v>
+        <v>0.0171980861895451</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.1817238910697654</v>
+        <v>0.7792685433498221</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-0.05085364529626091, 0.4143014274357917]</t>
+          <t>[0.10617608039697046, 1.4523610063026737]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.1190988105232671</v>
+        <v>0.02533187157824157</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1190988105232671</v>
+        <v>0.02533187157824157</v>
       </c>
       <c r="P18" t="n">
-        <v>1.717026615475503</v>
+        <v>2.710763631025427</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-0.24528951649649944, 3.679342747447506]</t>
+          <t>[1.540921321580579, 3.880605940470274]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.08309716623481989</v>
+        <v>9.202408431652209e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08309716623481989</v>
+        <v>9.202408431652209e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>35.02529646312939</v>
+        <v>36.42405609281815</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[34.890017234159664, 35.16057569209912]</t>
+          <t>[36.059997748588074, 36.78811443704822]</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>17.38330330330352</v>
+        <v>13.55467467467484</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.912792792792917</v>
+        <v>9.115995995996109</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.85381381381412</v>
+        <v>17.99335335335357</v>
       </c>
     </row>
     <row r="19">
@@ -2031,65 +2031,65 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0003271024416966473</v>
+        <v>2.016525072490172e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003271024416966473</v>
+        <v>2.016525072490172e-05</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.5904826717300899</v>
+        <v>1.124928400657886</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.24934086994724325, 0.9316244735129366]</t>
+          <t>[0.6769958080106164, 1.5728609933051558]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.001685128416021753</v>
+        <v>3.549270491309819e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001685128416021753</v>
+        <v>3.549270491309819e-05</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.213895123250465</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[-2.767368904063081, -1.6604213424378487]</t>
+          <t>[2.5095004380026573, 3.4655006048608126]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.379730134118631e-08</v>
+        <v>1.646949243649942e-11</v>
       </c>
       <c r="S19" t="n">
-        <v>4.379730134118631e-08</v>
+        <v>1.646949243649942e-11</v>
       </c>
       <c r="T19" t="n">
-        <v>35.42727112227915</v>
+        <v>36.44766582038444</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[35.25047457897098, 35.60406766558732]</t>
+          <t>[36.17786341784944, 36.717468222919436]</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -2099,13 +2099,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>8.428268268268374</v>
+        <v>12.50466466466482</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.32120120120128</v>
+        <v>10.69101101101114</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.53533533533547</v>
+        <v>14.31831831831849</v>
       </c>
     </row>
     <row r="20">
@@ -2117,65 +2117,65 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>8.717085470122399e-07</v>
+        <v>0.0002248999690983577</v>
       </c>
       <c r="I20" t="n">
-        <v>8.717085470122399e-07</v>
+        <v>0.0002248999690983577</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.6476728102921072</v>
+        <v>1.016729339366663</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0.43174052252670947, 0.863605098057505]</t>
+          <t>[0.515258126191263, 1.518200552542062]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.46243198556806e-06</v>
+        <v>0.0003872726659461811</v>
       </c>
       <c r="O20" t="n">
-        <v>3.46243198556806e-06</v>
+        <v>0.0003872726659461811</v>
       </c>
       <c r="P20" t="n">
-        <v>1.855395060678656</v>
+        <v>2.949763672739966</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[1.490605523324886, 2.220184598032427]</t>
+          <t>[2.3459740936716567, 3.553553251808275]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>7.186253814239763e-10</v>
+        <v>1.466757160173415e-09</v>
       </c>
       <c r="S20" t="n">
-        <v>7.186253814239763e-10</v>
+        <v>1.466757160173415e-09</v>
       </c>
       <c r="T20" t="n">
-        <v>34.90091149972135</v>
+        <v>36.40064562387276</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[34.77639473002435, 35.025428269418356]</t>
+          <t>[36.10518646410732, 36.69610478363819]</t>
         </is>
       </c>
       <c r="V20" t="n">
@@ -2185,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>16.85653653653675</v>
+        <v>12.647847847848</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.46778778778798</v>
+        <v>10.35691691691704</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.24528528528552</v>
+        <v>14.93877877877896</v>
       </c>
     </row>
     <row r="21">
@@ -2203,65 +2203,65 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003755817254758265</v>
+        <v>0.0001617556820167065</v>
       </c>
       <c r="I21" t="n">
-        <v>0.003755817254758265</v>
+        <v>0.0001617556820167065</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.4512093449702483</v>
+        <v>1.055805822896762</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[0.1191798844071883, 0.7832388055333084]</t>
+          <t>[0.5446585292575712, 1.5669531165359523]</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.0101194777017537</v>
+        <v>0.0003204709466158029</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0101194777017537</v>
+        <v>0.0003204709466158029</v>
       </c>
       <c r="P21" t="n">
-        <v>2.72334258058935</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1.9686056067539637, 3.4780795544247365]</t>
+          <t>[2.320816194543811, 3.5032374535525816]</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.262395915053617e-07</v>
+        <v>1.269880200993612e-09</v>
       </c>
       <c r="S21" t="n">
-        <v>2.262395915053617e-07</v>
+        <v>1.269880200993612e-09</v>
       </c>
       <c r="T21" t="n">
-        <v>34.51712998097565</v>
+        <v>36.25971497819407</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>[34.34442738929582, 34.68983257265549]</t>
+          <t>[35.96174731240435, 36.55768264398379]</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -2271,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>13.55227227227244</v>
+        <v>12.79103103103119</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.67899899899913</v>
+        <v>10.54782782782796</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.42554554554575</v>
+        <v>15.03423423423442</v>
       </c>
     </row>
     <row r="22">
@@ -2289,65 +2289,65 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>8.70513372497328e-09</v>
+        <v>7.47766225128732e-06</v>
       </c>
       <c r="I22" t="n">
-        <v>8.70513372497328e-09</v>
+        <v>7.47766225128732e-06</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.9288372409223413</v>
+        <v>1.123773587883363</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[0.6745680223081045, 1.1831064595365781]</t>
+          <t>[0.7106455960459748, 1.5369015797207517]</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1.867898005158963e-07</v>
+        <v>1.29399397015284e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.867898005158963e-07</v>
+        <v>1.29399397015284e-05</v>
       </c>
       <c r="P22" t="n">
-        <v>2.069237203265349</v>
+        <v>3.012658420559581</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1.8050792624229626, 2.333395144107735]</t>
+          <t>[2.572395185822273, 3.452921655296889]</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.169375790117556e-13</v>
+        <v>2.957412092996492e-12</v>
       </c>
       <c r="S22" t="n">
-        <v>2.169375790117556e-13</v>
+        <v>2.957412092996492e-12</v>
       </c>
       <c r="T22" t="n">
-        <v>34.62918571733742</v>
+        <v>36.50437324173424</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>[34.4941239358575, 34.76424749881734]</t>
+          <t>[36.25354217267913, 36.75520431078935]</t>
         </is>
       </c>
       <c r="V22" t="n">
@@ -2357,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16.04244244244265</v>
+        <v>12.40920920920936</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.03679679679698</v>
+        <v>10.73873873873887</v>
       </c>
       <c r="Z22" t="n">
-        <v>17.04808808808831</v>
+        <v>14.07967967967985</v>
       </c>
     </row>
     <row r="23">
@@ -2371,69 +2371,69 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1535603061291249</v>
+        <v>0.002839253272457043</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1535603061291249</v>
+        <v>0.002839253272457043</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.2640782391684162</v>
+        <v>0.8816118657325802</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[-0.11199522554761643, 0.6401517038844489]</t>
+          <t>[0.3529636445229194, 1.410260086942241]</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.1590072490045844</v>
+        <v>0.002298763308870022</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1590072490045844</v>
+        <v>0.002298763308870022</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[-4.037842810019313, 2.201316173686541]</t>
+          <t>[-3.86173751612439, -2.27678987107008]</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>0.5470137156195651</v>
+        <v>7.38649159615079e-08</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5470137156195651</v>
+        <v>7.38649159615079e-08</v>
       </c>
       <c r="T23" t="n">
-        <v>34.11482755440323</v>
+        <v>36.36658371020785</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>[33.92327174128979, 34.30638336751668]</t>
+          <t>[36.03853475597043, 36.694632664445265]</t>
         </is>
       </c>
       <c r="V23" t="n">
@@ -2443,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>3.49581581581586</v>
+        <v>11.6455655655657</v>
       </c>
       <c r="Y23" t="n">
-        <v>-8.380380380380485</v>
+        <v>8.63871871871882</v>
       </c>
       <c r="Z23" t="n">
-        <v>15.3720120120122</v>
+        <v>14.65241241241259</v>
       </c>
     </row>
     <row r="24">
@@ -2461,65 +2461,65 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1.960826391256276e-06</v>
+        <v>0.008452042236119617</v>
       </c>
       <c r="I24" t="n">
-        <v>1.960826391256276e-06</v>
+        <v>0.008452042236119617</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>1.056776167896327</v>
+        <v>0.8233416946715124</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0.6531860603170188, 1.4603662754756357]</t>
+          <t>[0.23319089442135166, 1.4134924949216732]</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.110819166190048e-05</v>
+        <v>0.008538604454771281</v>
       </c>
       <c r="O24" t="n">
-        <v>2.110819166190048e-05</v>
+        <v>0.008538604454771281</v>
       </c>
       <c r="P24" t="n">
-        <v>1.968605606753964</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[1.5535002711445012, 2.383710942363426]</t>
+          <t>[2.1069740519571187, 3.9686585874177362]</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.468009574485563e-09</v>
+        <v>1.033534959393734e-06</v>
       </c>
       <c r="S24" t="n">
-        <v>2.468009574485563e-09</v>
+        <v>1.033534959393734e-06</v>
       </c>
       <c r="T24" t="n">
-        <v>34.33736202901569</v>
+        <v>36.43634487139558</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>[34.12328024582125, 34.55144381221014]</t>
+          <t>[36.08726754769103, 36.785422195100125]</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>16.42554554554575</v>
+        <v>12.3137537537539</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.84524524524543</v>
+        <v>8.781901901902009</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.00584584584607</v>
+        <v>15.8456056056058</v>
       </c>
     </row>
     <row r="25">
@@ -2547,65 +2547,65 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.989454931905499e-06</v>
+        <v>0.0006411478910750557</v>
       </c>
       <c r="I25" t="n">
-        <v>1.989454931905499e-06</v>
+        <v>0.0006411478910750557</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.6754689228074184</v>
+        <v>1.083589261924779</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[0.4270686442587319, 0.923869201356105]</t>
+          <t>[0.5077878985266828, 1.6593906253228745]</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1.299473045013322e-05</v>
+        <v>0.0007986182890902249</v>
       </c>
       <c r="O25" t="n">
-        <v>1.299473045013322e-05</v>
+        <v>0.0007986182890902249</v>
       </c>
       <c r="P25" t="n">
-        <v>2.849132076228581</v>
+        <v>-3.031526844905466</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[2.446605690183042, 3.2516584622741203]</t>
+          <t>[-3.685632222229467, -2.377421467581465]</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.546984762512693e-12</v>
+        <v>3.679091920005817e-09</v>
       </c>
       <c r="S25" t="n">
-        <v>1.546984762512693e-12</v>
+        <v>3.679091920005817e-09</v>
       </c>
       <c r="T25" t="n">
-        <v>35.1126219435176</v>
+        <v>36.42668619036665</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>[34.97521356376858, 35.25003032326663]</t>
+          <t>[36.08068235081924, 36.77269002991405]</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>13.07339339339356</v>
+        <v>11.50238238238252</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.54098098098113</v>
+        <v>9.020540540540649</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.60580580580599</v>
+        <v>13.98422422422439</v>
       </c>
     </row>
     <row r="26">
@@ -2633,65 +2633,65 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>5.480667697455033e-08</v>
+        <v>1.305983775568009e-07</v>
       </c>
       <c r="I26" t="n">
-        <v>5.480667697455033e-08</v>
+        <v>1.305983775568009e-07</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.103158624614863</v>
+        <v>1.358873331190189</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[0.7942094630279968, 1.4121077862017302]</t>
+          <t>[0.9329717960444093, 1.7847748663359688]</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.661702720452297e-07</v>
+        <v>1.437652247249233e-06</v>
       </c>
       <c r="O26" t="n">
-        <v>2.661702720452297e-07</v>
+        <v>1.437652247249233e-06</v>
       </c>
       <c r="P26" t="n">
-        <v>2.912026824048196</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[2.610132034514042, 3.2139216135823507]</t>
+          <t>[-3.0692636935972355, -2.3648425180175425]</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>2.924327446862662e-13</v>
       </c>
       <c r="S26" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>2.924327446862662e-13</v>
       </c>
       <c r="T26" t="n">
-        <v>35.27901304107158</v>
+        <v>36.5584887298992</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>[35.100002509362206, 35.45802357278095]</t>
+          <t>[36.325779510516476, 36.79119794928193]</t>
         </is>
       </c>
       <c r="V26" t="n">
@@ -2701,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>12.83395395395411</v>
+        <v>10.30918918918931</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.68464464464479</v>
+        <v>8.972812812812922</v>
       </c>
       <c r="Z26" t="n">
-        <v>13.98326326326344</v>
+        <v>11.64556556556571</v>
       </c>
     </row>
     <row r="27">
@@ -2719,65 +2719,65 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>6.6201036419411e-07</v>
+        <v>0.001032929221580048</v>
       </c>
       <c r="I27" t="n">
-        <v>6.6201036419411e-07</v>
+        <v>0.001032929221580048</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.7809900059396426</v>
+        <v>0.91639882733962</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[0.49100763653127544, 1.0709723753480098]</t>
+          <t>[0.4121976904035627, 1.4205999642756773]</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1.472296707194509e-05</v>
+        <v>0.001098688911679746</v>
       </c>
       <c r="O27" t="n">
-        <v>1.472296707194509e-05</v>
+        <v>0.001098688911679746</v>
       </c>
       <c r="P27" t="n">
-        <v>2.39628989192735</v>
+        <v>-3.00636894577762</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[2.0566582537014266, 2.7359215301532736]</t>
+          <t>[-3.685632222229467, -2.327105669325773]</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.644906433284632e-12</v>
+        <v>8.108365090464531e-09</v>
       </c>
       <c r="S27" t="n">
-        <v>1.644906433284632e-12</v>
+        <v>8.108365090464531e-09</v>
       </c>
       <c r="T27" t="n">
-        <v>35.34760827136256</v>
+        <v>36.60168100353511</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>[35.19993793222016, 35.49527861050496]</t>
+          <t>[36.29521607765601, 36.908145929414204]</t>
         </is>
       </c>
       <c r="V27" t="n">
@@ -2787,13 +2787,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>14.79735735735754</v>
+        <v>11.40692692692706</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.50438438438455</v>
+        <v>8.829629629629736</v>
       </c>
       <c r="Z27" t="n">
-        <v>16.09033033033053</v>
+        <v>13.98422422422439</v>
       </c>
     </row>
     <row r="28">
@@ -2805,65 +2805,65 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0003044449725144727</v>
+        <v>0.0001041725142415517</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0003044449725144727</v>
+        <v>0.0001041725142415517</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.631406873428336</v>
+        <v>1.165178655352509</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[0.28863072823891756, 0.9741830186177545]</t>
+          <t>[0.6139488545064999, 1.7164084561985185]</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.0009730842597328593</v>
+        <v>0.0002521582095647013</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0009730842597328593</v>
+        <v>0.0002521582095647013</v>
       </c>
       <c r="P28" t="n">
-        <v>2.811395227536812</v>
+        <v>-2.905737349266235</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[2.207605648468503, 3.4151848066051214]</t>
+          <t>[-3.434053230951006, -2.3774214675814647]</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.394176273374683e-09</v>
+        <v>1.754696388189814e-10</v>
       </c>
       <c r="S28" t="n">
-        <v>3.394176273374683e-09</v>
+        <v>1.754696388189814e-10</v>
       </c>
       <c r="T28" t="n">
-        <v>35.25175632076295</v>
+        <v>36.65189739285361</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>[35.063892096632046, 35.439620544893856]</t>
+          <t>[36.33458809342606, 36.96920669228116]</t>
         </is>
       </c>
       <c r="V28" t="n">
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>13.21705705705722</v>
+        <v>11.02510510510524</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.91843843843857</v>
+        <v>9.020540540540647</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.51567567567587</v>
+        <v>13.02966966966983</v>
       </c>
     </row>
     <row r="29">
@@ -2891,65 +2891,65 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>5.572986516710898e-12</v>
+        <v>0.0001213348189801344</v>
       </c>
       <c r="I29" t="n">
-        <v>5.572986516710898e-12</v>
+        <v>0.0001213348189801344</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.378478727862362</v>
+        <v>0.8315430311040295</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[1.137940677527041, 1.6190167781976825]</t>
+          <t>[0.43076318623799636, 1.2323228759700626]</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>8.263856265955383e-11</v>
+        <v>0.0003060607959863848</v>
       </c>
       <c r="O29" t="n">
-        <v>8.263856265955383e-11</v>
+        <v>0.0003060607959863848</v>
       </c>
       <c r="P29" t="n">
-        <v>1.968605606753964</v>
+        <v>-2.880579450138389</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[1.7799213632951165, 2.157289850212811]</t>
+          <t>[-3.434053230951006, -2.3271056693257726]</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>4.762763516907853e-10</v>
       </c>
       <c r="S29" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>4.762763516907853e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>35.31627228525863</v>
+        <v>36.38605732917149</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>[35.18198576066351, 35.45055880985376]</t>
+          <t>[36.15665544101978, 36.615459217323206]</t>
         </is>
       </c>
       <c r="V29" t="n">
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>16.42554554554575</v>
+        <v>10.92964964964978</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.70722722722742</v>
+        <v>8.829629629629736</v>
       </c>
       <c r="Z29" t="n">
-        <v>17.14386386386408</v>
+        <v>13.02966966966983</v>
       </c>
     </row>
     <row r="30">
@@ -2977,65 +2977,65 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.9200000000003</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01761944718621067</v>
+        <v>0.001524079095299835</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01761944718621067</v>
+        <v>0.001524079095299835</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.3803912077983966</v>
+        <v>0.9845774956365965</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[0.052391844885939065, 0.7083905707108542]</t>
+          <t>[0.30730956821309974, 1.6618454230600932]</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.02510961046019311</v>
+        <v>0.00646868089394026</v>
       </c>
       <c r="O30" t="n">
-        <v>0.02510961046019311</v>
+        <v>0.00646868089394026</v>
       </c>
       <c r="P30" t="n">
-        <v>-2.100684577175157</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[-3.1573163405446962, -1.0440528138056173]</t>
+          <t>[-3.157316340544697, -1.8994213841523875]</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>0.0004711066078320059</v>
+        <v>4.037025824743523e-08</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0004711066078320059</v>
+        <v>4.037025824743523e-08</v>
       </c>
       <c r="T30" t="n">
-        <v>35.23965432210723</v>
+        <v>36.45591026339078</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>[35.061522666208184, 35.41778597800627]</t>
+          <t>[36.11398667506299, 36.797833851718565]</t>
         </is>
       </c>
       <c r="V30" t="n">
@@ -3045,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>7.997277277277378</v>
+        <v>9.59327327327339</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.974694694694747</v>
+        <v>7.206886886886974</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.01985985986001</v>
+        <v>11.97965965965981</v>
       </c>
     </row>
     <row r="31">
@@ -3059,69 +3059,69 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>23.9200000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8409013368429652</v>
+        <v>0.001358317470032899</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8409013368429652</v>
+        <v>0.001358317470032899</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.05997907320728402</v>
+        <v>0.8823719543959569</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[-0.2194352001127875, 0.33939334652735553]</t>
+          <t>[0.2888073321638309, 1.475936576628083]</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.6598704333788925</v>
+        <v>0.005530487759568992</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6598704333788925</v>
+        <v>0.005530487759568992</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.8553685703467702</v>
+        <v>-2.415158316273234</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[-3.9812375369816584, 2.270500396288118]</t>
+          <t>[-3.018947895341543, -1.8113687372049254]</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>0.5753456773046359</v>
+        <v>4.379730134118631e-08</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5753456773046359</v>
+        <v>4.379730134118631e-08</v>
       </c>
       <c r="T31" t="n">
-        <v>34.6347487793856</v>
+        <v>36.29975814114503</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>[34.485702683683414, 34.78379487508779]</t>
+          <t>[35.99694618351314, 36.602570098776916]</t>
         </is>
       </c>
       <c r="V31" t="n">
@@ -3131,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>3.256376376376416</v>
+        <v>9.109909909910012</v>
       </c>
       <c r="Y31" t="n">
-        <v>-8.64376376376387</v>
+        <v>6.832432432432508</v>
       </c>
       <c r="Z31" t="n">
-        <v>15.1565165165167</v>
+        <v>11.38738738738752</v>
       </c>
     </row>
     <row r="32">
@@ -3145,69 +3145,69 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>23.9200000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.896354539678626e-06</v>
+        <v>0.03681052213569802</v>
       </c>
       <c r="I32" t="n">
-        <v>3.896354539678626e-06</v>
+        <v>0.03681052213569802</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.7039950787492195</v>
+        <v>0.5993345211906629</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[0.41785510046489094, 0.9901350570335481]</t>
+          <t>[-0.0030354474004639087, 1.2017044897817897]</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.554454732463853e-05</v>
+        <v>0.05106324679763619</v>
       </c>
       <c r="O32" t="n">
-        <v>4.554454732463853e-05</v>
+        <v>0.05106324679763619</v>
       </c>
       <c r="P32" t="n">
-        <v>-2.578684660604234</v>
+        <v>-2.402579366709311</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[-3.00636894577762, -2.151000375430849]</t>
+          <t>[-4.276842851733853, -0.5283158816847697]</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.225419931141005e-11</v>
+        <v>0.01446359266564801</v>
       </c>
       <c r="S32" t="n">
-        <v>3.225419931141005e-11</v>
+        <v>0.01446359266564801</v>
       </c>
       <c r="T32" t="n">
-        <v>35.39546216504027</v>
+        <v>36.19515404429261</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>[35.24560566171589, 35.54531866836465]</t>
+          <t>[35.87854184217156, 36.51176624641367]</t>
         </is>
       </c>
       <c r="V32" t="n">
@@ -3217,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.817017017017138</v>
+        <v>9.062462462462562</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.188828828828928</v>
+        <v>1.992792792792812</v>
       </c>
       <c r="Z32" t="n">
-        <v>11.44520520520535</v>
+        <v>16.13213213213231</v>
       </c>
     </row>
     <row r="33">
@@ -3235,65 +3235,65 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.9200000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003909216446326802</v>
+        <v>0.0007427938096132847</v>
       </c>
       <c r="I33" t="n">
-        <v>0.003909216446326802</v>
+        <v>0.0007427938096132847</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.4796810472015878</v>
+        <v>0.9773472808588792</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[0.17089110114912032, 0.7884709932540552]</t>
+          <t>[0.373434671185624, 1.5812598905321344]</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.004009041684953862</v>
+        <v>0.002925032900979341</v>
       </c>
       <c r="O33" t="n">
-        <v>0.004009041684953862</v>
+        <v>0.002925032900979341</v>
       </c>
       <c r="P33" t="n">
-        <v>1.717026615475503</v>
+        <v>-2.490632013656773</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[0.8993948938205021, 2.5346583371305043]</t>
+          <t>[-3.0944215927250815, -1.886842434588464]</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>0.0002700352344886525</v>
+        <v>2.641825114224616e-08</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0002700352344886525</v>
+        <v>2.641825114224616e-08</v>
       </c>
       <c r="T33" t="n">
-        <v>35.36739485593117</v>
+        <v>36.33619987845285</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>[35.1832480898548, 35.551541622007534]</t>
+          <t>[36.019819823734764, 36.65257993317093]</t>
         </is>
       </c>
       <c r="V33" t="n">
@@ -3303,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>17.38330330330352</v>
+        <v>9.3945945945947</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.27059059059077</v>
+        <v>7.117117117117196</v>
       </c>
       <c r="Z33" t="n">
-        <v>20.49601601601627</v>
+        <v>11.6720720720722</v>
       </c>
     </row>
     <row r="34">
@@ -3321,65 +3321,65 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>23.9200000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001877931263983168</v>
+        <v>0.0008707249196605593</v>
       </c>
       <c r="I34" t="n">
-        <v>0.001877931263983168</v>
+        <v>0.0008707249196605593</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.3271409825332157</v>
+        <v>0.757375799509493</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[0.10304070432092871, 0.5512412607455026]</t>
+          <t>[0.2942812382652562, 1.2204703607537297]</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.006284932764633044</v>
+        <v>0.002690850426391389</v>
       </c>
       <c r="O34" t="n">
-        <v>0.006284932764633044</v>
+        <v>0.002690850426391389</v>
       </c>
       <c r="P34" t="n">
-        <v>2.509500438002657</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[1.8428161111147334, 3.176184764890581]</t>
+          <t>[-3.3837374326953125, -2.0503687789194647]</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.164797374109128e-07</v>
+        <v>3.224281397429252e-08</v>
       </c>
       <c r="S34" t="n">
-        <v>1.164797374109128e-07</v>
+        <v>3.224281397429252e-08</v>
       </c>
       <c r="T34" t="n">
-        <v>35.22038215950611</v>
+        <v>36.63897168163959</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>[35.10432809789022, 35.336436221122]</t>
+          <t>[36.389274141511095, 36.88866922176808]</t>
         </is>
       </c>
       <c r="V34" t="n">
@@ -3389,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>14.36636636636655</v>
+        <v>10.24864864864876</v>
       </c>
       <c r="Y34" t="n">
-        <v>11.82830830830846</v>
+        <v>7.733933933934022</v>
       </c>
       <c r="Z34" t="n">
-        <v>16.90442442442464</v>
+        <v>12.76336336336351</v>
       </c>
     </row>
     <row r="35">
@@ -3403,69 +3403,69 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>23.9200000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>6.867060026805039e-05</v>
+        <v>0.06924873397270548</v>
       </c>
       <c r="I35" t="n">
-        <v>6.867060026805039e-05</v>
+        <v>0.06924873397270548</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.5550588521741062</v>
+        <v>0.5659537177329845</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[0.28144819249737907, 0.8286695118508334]</t>
+          <t>[-0.08276125856056282, 1.2146686940265319]</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.0003850601061801129</v>
+        <v>0.08394511895095524</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0003850601061801129</v>
+        <v>0.08394511895095524</v>
       </c>
       <c r="P35" t="n">
-        <v>2.597553084950119</v>
+        <v>-2.402579366709311</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[2.0943951023931957, 3.100711067507043]</t>
+          <t>[-5.232843018592008, 0.4276842851733855]</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.508065115122918e-10</v>
+        <v>0.09204141985600445</v>
       </c>
       <c r="S35" t="n">
-        <v>5.508065115122918e-10</v>
+        <v>0.09204141985600445</v>
       </c>
       <c r="T35" t="n">
-        <v>35.65137332206461</v>
+        <v>36.39178504036826</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>[35.50571457668802, 35.797032067441194]</t>
+          <t>[36.05372765032182, 36.729842430414706]</t>
         </is>
       </c>
       <c r="V35" t="n">
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>14.03115115115133</v>
+        <v>9.062462462462562</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.11563563563579</v>
+        <v>-1.613213213213234</v>
       </c>
       <c r="Z35" t="n">
-        <v>15.94666666666686</v>
+        <v>19.73813813813836</v>
       </c>
     </row>
     <row r="36">
@@ -3489,69 +3489,69 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.9200000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001183402082270524</v>
+        <v>0.2676976156661406</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001183402082270524</v>
+        <v>0.2676976156661406</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.5717169338992889</v>
+        <v>0.4659798352493176</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[0.20932523509353018, 0.9341086327050476]</t>
+          <t>[-0.24847722056454558, 1.1804368910631808]</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.003565713640668822</v>
+        <v>0.1893906462523458</v>
       </c>
       <c r="O36" t="n">
-        <v>0.003565713640668822</v>
+        <v>0.1893906462523458</v>
       </c>
       <c r="P36" t="n">
-        <v>1.981184556317888</v>
+        <v>-1.773631888513156</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[1.3145002294299646, 2.6478688832058106]</t>
+          <t>[-4.842895582110391, 1.2956318050840787]</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.939684420917189e-06</v>
+        <v>0.2428403402645467</v>
       </c>
       <c r="S36" t="n">
-        <v>3.939684420917189e-06</v>
+        <v>0.2428403402645467</v>
       </c>
       <c r="T36" t="n">
-        <v>35.26233818673413</v>
+        <v>36.45085058304787</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>[35.06936961978377, 35.455306753684496]</t>
+          <t>[36.04417881895782, 36.857522347137916]</t>
         </is>
       </c>
       <c r="V36" t="n">
@@ -3561,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>16.37765765765786</v>
+        <v>6.690090090090166</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.83959959959978</v>
+        <v>-4.88708708708714</v>
       </c>
       <c r="Z36" t="n">
-        <v>18.91571571571595</v>
+        <v>18.26726726726747</v>
       </c>
     </row>
     <row r="37">
@@ -3575,69 +3575,69 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>23.9200000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>7.209638362037918e-05</v>
+        <v>0.5763582911219105</v>
       </c>
       <c r="I37" t="n">
-        <v>7.209638362037918e-05</v>
+        <v>0.5763582911219105</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.3253702491753501</v>
+        <v>0.2895039741422636</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[0.1756207034649293, 0.47511979488577083]</t>
+          <t>[-0.478422832313921, 1.0574307805984482]</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.000188122890826925</v>
+        <v>0.4417926624498634</v>
       </c>
       <c r="O37" t="n">
-        <v>0.000188122890826925</v>
+        <v>0.4417926624498634</v>
       </c>
       <c r="P37" t="n">
-        <v>2.823974177100735</v>
+        <v>-2.163579324994773</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[2.3082372449798885, 3.339711109221581]</t>
+          <t>[-5.295737766411623, 0.9685791164220774]</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>1.902609181314574e-10</v>
+        <v>0.1655858982187335</v>
       </c>
       <c r="S37" t="n">
-        <v>1.902609181314574e-10</v>
+        <v>0.1655858982187335</v>
       </c>
       <c r="T37" t="n">
-        <v>35.34487304295578</v>
+        <v>36.20035933438427</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>[35.25902113942671, 35.430724946484844]</t>
+          <t>[35.80064675677974, 36.60007191198879]</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -3647,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>13.16916916916933</v>
+        <v>8.160960960961054</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.20576576576591</v>
+        <v>-3.653453453453491</v>
       </c>
       <c r="Z37" t="n">
-        <v>15.13257257257276</v>
+        <v>19.9753753753756</v>
       </c>
     </row>
     <row r="38">
@@ -3661,69 +3661,69 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.871245413122892e-08</v>
+        <v>0.1779946995944579</v>
       </c>
       <c r="I38" t="n">
-        <v>3.871245413122892e-08</v>
+        <v>0.1779946995944579</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.9064916296476859</v>
+        <v>0.5009677352443092</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[0.6594049731518403, 1.1535782861435315]</t>
+          <t>[-0.208692067079852, 1.2106275375684703]</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1.746247750844532e-07</v>
+        <v>0.1569089561813217</v>
       </c>
       <c r="O38" t="n">
-        <v>1.746247750844532e-07</v>
+        <v>0.1569089561813217</v>
       </c>
       <c r="P38" t="n">
-        <v>-2.893158399702312</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[-3.207632138800389, -2.5786846606042344]</t>
+          <t>[-5.044158775133162, 1.1195265111891564]</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>9.103828801926284e-15</v>
+        <v>0.19968180996138</v>
       </c>
       <c r="S38" t="n">
-        <v>9.103828801926284e-15</v>
+        <v>0.19968180996138</v>
       </c>
       <c r="T38" t="n">
-        <v>35.8613007449991</v>
+        <v>36.18111548764639</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>[35.717104254994226, 36.00549723500397]</t>
+          <t>[35.80235742844881, 36.55987354684397]</t>
         </is>
       </c>
       <c r="V38" t="n">
@@ -3733,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>11.01881881881896</v>
+        <v>7.401801801801884</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.821121121121244</v>
+        <v>-4.222822822822872</v>
       </c>
       <c r="Z38" t="n">
-        <v>12.21651651651667</v>
+        <v>19.02642642642664</v>
       </c>
     </row>
     <row r="39">
@@ -3751,65 +3751,65 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1930509150217237</v>
+        <v>0.3402885279669289</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1930509150217237</v>
+        <v>0.3402885279669289</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.1224860818067697</v>
+        <v>0.4404535631460043</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[-0.0596569184331166, 0.30462908204665595]</t>
+          <t>[-0.3703731329864368, 1.2512802592784453]</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.1765630963956526</v>
+        <v>0.2713508113754344</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1765630963956526</v>
+        <v>0.2713508113754344</v>
       </c>
       <c r="P39" t="n">
-        <v>2.320816194543811</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, 5.459264110742623]</t>
+          <t>[-5.050448249915122, 1.1258159859711165]</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>0.1390221536610978</v>
+        <v>0.2005634328061259</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1390221536610978</v>
+        <v>0.2005634328061259</v>
       </c>
       <c r="T39" t="n">
-        <v>35.37243123127635</v>
+        <v>36.1564816913254</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>[35.27704644668657, 35.467816015866134]</t>
+          <t>[35.72813816685124, 36.584825215799555]</t>
         </is>
       </c>
       <c r="V39" t="n">
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>15.09099099099118</v>
+        <v>7.401801801801884</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.137967967968009</v>
+        <v>-4.246546546546591</v>
       </c>
       <c r="Z39" t="n">
-        <v>27.04401401401435</v>
+        <v>19.05015015015036</v>
       </c>
     </row>
     <row r="40">
@@ -3837,65 +3837,65 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>6.292779447192309e-06</v>
+        <v>0.01497828286741743</v>
       </c>
       <c r="I40" t="n">
-        <v>6.292779447192309e-06</v>
+        <v>0.01497828286741743</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.9265291894325891</v>
+        <v>0.7343592965276535</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[0.5445063279677314, 1.3085520508974469]</t>
+          <t>[0.13841105586340063, 1.3303075371919064]</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>5.406014558317906e-05</v>
+        <v>0.01813868347275771</v>
       </c>
       <c r="O40" t="n">
-        <v>5.406014558317906e-05</v>
+        <v>0.01813868347275771</v>
       </c>
       <c r="P40" t="n">
-        <v>2.647868883205811</v>
+        <v>-1.811368737204925</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>[2.220184598032427, 3.0755531683791952]</t>
+          <t>[-2.880579450138388, -0.7421580242714629]</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.96662686136051e-11</v>
+        <v>0.002019182184509472</v>
       </c>
       <c r="S40" t="n">
-        <v>1.96662686136051e-11</v>
+        <v>0.002019182184509472</v>
       </c>
       <c r="T40" t="n">
-        <v>36.1520853452879</v>
+        <v>36.16621955385155</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>[35.94825153361727, 36.355919156958535]</t>
+          <t>[35.83193403321931, 36.50050507448378]</t>
         </is>
       </c>
       <c r="V40" t="n">
@@ -3905,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>13.84538538538556</v>
+        <v>6.832432432432508</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.21651651651668</v>
+        <v>2.799399399399433</v>
       </c>
       <c r="Z40" t="n">
-        <v>15.47425425425445</v>
+        <v>10.86546546546558</v>
       </c>
     </row>
     <row r="41">
@@ -3923,65 +3923,65 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.007314716443044378</v>
+        <v>0.002483806937594313</v>
       </c>
       <c r="I41" t="n">
-        <v>0.007314716443044378</v>
+        <v>0.002483806937594313</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.5060996654095042</v>
+        <v>0.7768846343093685</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[0.10155514314639191, 0.9106441876726166]</t>
+          <t>[0.2834996113974455, 1.2702696572212915]</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.0166549397005531</v>
+        <v>0.003618320911280337</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0166549397005531</v>
+        <v>0.003618320911280337</v>
       </c>
       <c r="P41" t="n">
-        <v>-2.553526761476388</v>
+        <v>-1.723316090257464</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[-3.3208426848756964, -1.7862108380770803]</t>
+          <t>[-2.5032109632206963, -0.9434212172942322]</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>7.743513772417998e-07</v>
+        <v>0.0001566445925582638</v>
       </c>
       <c r="S41" t="n">
-        <v>7.743513772417998e-07</v>
+        <v>0.0001566445925582638</v>
       </c>
       <c r="T41" t="n">
-        <v>35.61062503181145</v>
+        <v>36.19800882181885</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>[35.40033229275118, 35.82091777087172]</t>
+          <t>[35.91556667750317, 36.48045096613453]</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>9.725305305305428</v>
+        <v>6.500300300300374</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.802922922923011</v>
+        <v>3.558558558558599</v>
       </c>
       <c r="Z41" t="n">
-        <v>12.64768768768784</v>
+        <v>9.44204204204215</v>
       </c>
     </row>
     <row r="42">
@@ -4009,65 +4009,65 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.001471399593208522</v>
+        <v>3.978224299561184e-05</v>
       </c>
       <c r="I42" t="n">
-        <v>0.001471399593208522</v>
+        <v>3.978224299561184e-05</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.3585318024391775</v>
+        <v>0.9689154668422191</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[0.12693328505347523, 0.5901303198248797]</t>
+          <t>[0.5610775443607778, 1.3767533893236603]</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.004114000988180155</v>
+        <v>6.896870685091372e-05</v>
       </c>
       <c r="O42" t="n">
-        <v>0.004114000988180155</v>
+        <v>6.896870685091372e-05</v>
       </c>
       <c r="P42" t="n">
-        <v>-2.629000458859927</v>
+        <v>-1.823947686768848</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[-3.2705268866200057, -1.9874740310998482]</t>
+          <t>[-2.3271056693257726, -1.3207897042119243]</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.943957477796744e-08</v>
+        <v>2.105895267057178e-07</v>
       </c>
       <c r="S42" t="n">
-        <v>2.943957477796744e-08</v>
+        <v>2.105895267057178e-07</v>
       </c>
       <c r="T42" t="n">
-        <v>35.39249801232603</v>
+        <v>36.29062647563243</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>[35.268405182727875, 35.516590841924184]</t>
+          <t>[36.04805647712139, 36.533196474143466]</t>
         </is>
       </c>
       <c r="V42" t="n">
@@ -4077,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>10.01275275275288</v>
+        <v>6.879879879879955</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.569449449449542</v>
+        <v>4.981981981982035</v>
       </c>
       <c r="Z42" t="n">
-        <v>12.45605605605622</v>
+        <v>8.777777777777874</v>
       </c>
     </row>
     <row r="43">
@@ -4095,65 +4095,65 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.270292295758545</v>
+        <v>0.1215205765547899</v>
       </c>
       <c r="I43" t="n">
-        <v>0.270292295758545</v>
+        <v>0.1215205765547899</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.2661208927066419</v>
+        <v>0.3813831419003968</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[-0.1838925098728943, 0.716134295286178]</t>
+          <t>[-0.11534946626997211, 0.8781157500707657]</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.2323706051753343</v>
+        <v>0.1252736166892785</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2323706051753343</v>
+        <v>0.1252736166892785</v>
       </c>
       <c r="P43" t="n">
-        <v>2.735921530153273</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[-0.27673689040630833, 5.7485799507128545]</t>
+          <t>[-3.9120533143800826, 1.924579283280234]</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>0.07283944600227299</v>
+        <v>0.4866420767232338</v>
       </c>
       <c r="S43" t="n">
-        <v>0.07283944600227299</v>
+        <v>0.4866420767232338</v>
       </c>
       <c r="T43" t="n">
-        <v>35.77039286565149</v>
+        <v>36.5827497427742</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>[35.53585746306186, 36.004928268241116]</t>
+          <t>[36.324213144352214, 36.84128634119618]</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -4163,13 +4163,13 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>13.5100300300302</v>
+        <v>3.74834834834839</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.036086086086113</v>
+        <v>-7.25945945945954</v>
       </c>
       <c r="Z43" t="n">
-        <v>24.98397397397429</v>
+        <v>14.75615615615632</v>
       </c>
     </row>
     <row r="44">
@@ -4177,69 +4177,69 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01133373350759159</v>
+        <v>0.1006128309468064</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01133373350759159</v>
+        <v>0.1006128309468064</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.3556349648979804</v>
+        <v>0.511488976295265</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[0.05288212968300243, 0.6583878001129584]</t>
+          <t>[-0.04532182100947324, 1.0682997736000033]</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.02349628750111332</v>
+        <v>0.06984030931644813</v>
       </c>
       <c r="O44" t="n">
-        <v>0.02349628750111332</v>
+        <v>0.06984030931644813</v>
       </c>
       <c r="P44" t="n">
-        <v>-2.528368862348542</v>
+        <v>-1.610105544182156</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[-3.308263735311773, -1.7484739893853107]</t>
+          <t>[-3.069263693597235, -0.1509473947670772]</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.139187737253522e-06</v>
+        <v>0.03215395668570054</v>
       </c>
       <c r="S44" t="n">
-        <v>1.139187737253522e-06</v>
+        <v>0.03215395668570054</v>
       </c>
       <c r="T44" t="n">
-        <v>35.40049819798681</v>
+        <v>36.23018914908729</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>[35.24402437420166, 35.55697202177197]</t>
+          <t>[35.900466257117884, 36.559912041056705]</t>
         </is>
       </c>
       <c r="V44" t="n">
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>9.629489489489609</v>
+        <v>6.07327327327334</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.659199199199285</v>
+        <v>0.5693693693693751</v>
       </c>
       <c r="Z44" t="n">
-        <v>12.59977977977993</v>
+        <v>11.5771771771773</v>
       </c>
     </row>
     <row r="45">
@@ -4267,65 +4267,65 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1.255672232858274e-10</v>
+        <v>0.03064366052515588</v>
       </c>
       <c r="I45" t="n">
-        <v>1.255672232858274e-10</v>
+        <v>0.03064366052515588</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.101949662622616</v>
+        <v>0.7156444263280193</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[0.8755276843849167, 1.3283716408603148]</t>
+          <t>[0.06687154310289145, 1.364417309553147]</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1.568671192941906e-09</v>
+        <v>0.0322063777988737</v>
       </c>
       <c r="O45" t="n">
-        <v>1.568671192941906e-09</v>
+        <v>0.0322063777988737</v>
       </c>
       <c r="P45" t="n">
-        <v>-2.817684702318773</v>
+        <v>-1.38368445203154</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[-3.0315268449054655, -2.603842559732081]</t>
+          <t>[-2.5661057110403114, -0.2012631930227684]</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.02396735250044046</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.02396735250044046</v>
       </c>
       <c r="T45" t="n">
-        <v>35.79246266447219</v>
+        <v>36.50063430626233</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>[35.66557318707035, 35.91935214187403]</t>
+          <t>[36.13693298923331, 36.864335623291346]</t>
         </is>
       </c>
       <c r="V45" t="n">
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>10.73137137137151</v>
+        <v>5.219219219219276</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.916936936937061</v>
+        <v>0.7591591591591644</v>
       </c>
       <c r="Z45" t="n">
-        <v>11.54580580580595</v>
+        <v>9.679279279279388</v>
       </c>
     </row>
     <row r="46">
@@ -4353,65 +4353,65 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-24</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0001100359271307694</v>
+        <v>0.01204092215119601</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0001100359271307694</v>
+        <v>0.01204092215119601</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.3829447720497079</v>
+        <v>0.8019582808971215</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[0.19096755425701062, 0.5749219898424052]</t>
+          <t>[0.1881643345450854, 1.4157522272491576]</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.0004557906877709073</v>
+        <v>0.01290937468909492</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0004557906877709073</v>
+        <v>0.01290937468909492</v>
       </c>
       <c r="P46" t="n">
-        <v>-2.679316257115619</v>
+        <v>-1.42142130072331</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[-3.20763213880039, -2.151000375430849]</t>
+          <t>[-2.465474114528927, -0.37736848691769254]</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7.568614623920666e-10</v>
+        <v>0.01000175602151998</v>
       </c>
       <c r="S46" t="n">
-        <v>7.568614623920666e-10</v>
+        <v>0.01000175602151998</v>
       </c>
       <c r="T46" t="n">
-        <v>35.38883412550452</v>
+        <v>36.15774128781844</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>[35.284213644503055, 35.49345460650598]</t>
+          <t>[35.804407525107926, 36.51107505052895]</t>
         </is>
       </c>
       <c r="V46" t="n">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>10.20438438438451</v>
+        <v>5.361561561561622</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.192252252252352</v>
+        <v>1.423423423423438</v>
       </c>
       <c r="Z46" t="n">
-        <v>12.21651651651667</v>
+        <v>9.299699699699806</v>
       </c>
     </row>
     <row r="47">
@@ -4439,65 +4439,65 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1.489687349265356e-05</v>
+        <v>0.00930997874568229</v>
       </c>
       <c r="I47" t="n">
-        <v>1.489687349265356e-05</v>
+        <v>0.00930997874568229</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.7558139433455011</v>
+        <v>0.7943339584981928</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[0.43206858594592035, 1.0795593007450819]</t>
+          <t>[0.15896562254293656, 1.429702294453449]</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>8.445960370262462e-05</v>
+        <v>0.01671888451061099</v>
       </c>
       <c r="O47" t="n">
-        <v>8.445960370262462e-05</v>
+        <v>0.01671888451061099</v>
       </c>
       <c r="P47" t="n">
-        <v>-1.94973718240808</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[-2.4151583162732346, -1.4843160485429245]</t>
+          <t>[-1.9623161319720026, -0.22642109215061623]</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.044814317869736e-08</v>
+        <v>0.01592439798538536</v>
       </c>
       <c r="S47" t="n">
-        <v>2.044814317869736e-08</v>
+        <v>0.01592439798538536</v>
       </c>
       <c r="T47" t="n">
-        <v>35.60008306709699</v>
+        <v>36.17024552012417</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>[35.42370370579143, 35.776462428402546]</t>
+          <t>[35.83151499152797, 36.50897604872037]</t>
         </is>
       </c>
       <c r="V47" t="n">
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>7.425725725725819</v>
+        <v>4.127927927927974</v>
       </c>
       <c r="Y47" t="n">
-        <v>5.653133133133202</v>
+        <v>0.8540540540540649</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.198318318318435</v>
+        <v>7.401801801801883</v>
       </c>
     </row>
     <row r="48">
@@ -4525,65 +4525,65 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>8.316370577743371e-07</v>
+        <v>0.01809669605091013</v>
       </c>
       <c r="I48" t="n">
-        <v>8.316370577743371e-07</v>
+        <v>0.01809669605091013</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.8641834266204533</v>
+        <v>0.7916578203415128</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[0.5965459860454345, 1.1318208671954721]</t>
+          <t>[0.10062287123086833, 1.4826927694521572]</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>1.208150592901802e-06</v>
+        <v>0.02672833285101306</v>
       </c>
       <c r="O48" t="n">
-        <v>1.208150592901802e-06</v>
+        <v>0.02672833285101306</v>
       </c>
       <c r="P48" t="n">
-        <v>3.037816319687427</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[2.6730267823336575, 3.4026058570411974]</t>
+          <t>[-2.377421467581465, -0.08805264694746207]</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>6.52811138479592e-14</v>
+        <v>0.03606803365697275</v>
       </c>
       <c r="S48" t="n">
-        <v>6.52811138479592e-14</v>
+        <v>0.03606803365697275</v>
       </c>
       <c r="T48" t="n">
-        <v>36.10982582549775</v>
+        <v>36.23719425593899</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>[35.94385899256571, 36.27579265842979]</t>
+          <t>[35.866872288623384, 36.60751622325459]</t>
         </is>
       </c>
       <c r="V48" t="n">
@@ -4593,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>12.3602402402404</v>
+        <v>4.649849849849904</v>
       </c>
       <c r="Y48" t="n">
-        <v>10.97091091091105</v>
+        <v>0.3321321321321387</v>
       </c>
       <c r="Z48" t="n">
-        <v>13.74956956956974</v>
+        <v>8.96756756756767</v>
       </c>
     </row>
     <row r="49">
@@ -4607,69 +4607,69 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>8.047922199105884e-06</v>
+        <v>0.07751497024333309</v>
       </c>
       <c r="I49" t="n">
-        <v>8.047922199105884e-06</v>
+        <v>0.07751497024333309</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.4062013680935976</v>
+        <v>0.6487283984671279</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[0.24946981126406698, 0.5629329249231283]</t>
+          <t>[-0.11726525679595667, 1.4147220537302125]</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.402322506434018e-05</v>
+        <v>0.0927515951709037</v>
       </c>
       <c r="O49" t="n">
-        <v>2.402322506434018e-05</v>
+        <v>0.0927515951709037</v>
       </c>
       <c r="P49" t="n">
-        <v>-2.918316298830158</v>
+        <v>-0.9811580659860013</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[-3.358579533567467, -2.4780530640928498]</t>
+          <t>[-3.6730532726655443, 1.7107371406935417]</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>5.42255129687419e-12</v>
+        <v>0.4568795154776188</v>
       </c>
       <c r="S49" t="n">
-        <v>5.42255129687419e-12</v>
+        <v>0.4568795154776188</v>
       </c>
       <c r="T49" t="n">
-        <v>35.38826699694429</v>
+        <v>36.25019789682221</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>[35.29724119959529, 35.479292794293286]</t>
+          <t>[35.8552063799756, 36.64518941366882]</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -4679,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>11.11463463463478</v>
+        <v>3.70090090090094</v>
       </c>
       <c r="Y49" t="n">
-        <v>9.437857857857978</v>
+        <v>-6.45285285285293</v>
       </c>
       <c r="Z49" t="n">
-        <v>12.79141141141157</v>
+        <v>13.85465465465481</v>
       </c>
     </row>
     <row r="50">
@@ -4693,69 +4693,69 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>23.9300000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.006077370954235772</v>
+        <v>0.2135190304141574</v>
       </c>
       <c r="I50" t="n">
-        <v>0.006077370954235772</v>
+        <v>0.2135190304141574</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.4770406320832805</v>
+        <v>0.3741874179903668</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0.10333955969608155, 0.8507417044704795]</t>
+          <t>[-0.17940612106452036, 0.927780957045254]</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.01482302430602278</v>
+        <v>0.174447713929119</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01482302430602278</v>
+        <v>0.174447713929119</v>
       </c>
       <c r="P50" t="n">
-        <v>2.459184639746965</v>
+        <v>-1.220158107700541</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[1.7547634641672722, 3.1636058153266573]</t>
+          <t>[-3.968658587417737, 1.528342372016656]</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.763431819514551e-07</v>
+        <v>0.3663817333615889</v>
       </c>
       <c r="S50" t="n">
-        <v>3.763431819514551e-07</v>
+        <v>0.3663817333615889</v>
       </c>
       <c r="T50" t="n">
-        <v>35.89040738779256</v>
+        <v>36.40877947460272</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>[35.69697858955338, 36.083836186031746]</t>
+          <t>[36.10904740644509, 36.708511542760355]</t>
         </is>
       </c>
       <c r="V50" t="n">
@@ -4765,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>14.56400400400419</v>
+        <v>4.602402402402454</v>
       </c>
       <c r="Y50" t="n">
-        <v>11.88116116116132</v>
+        <v>-5.764864864864929</v>
       </c>
       <c r="Z50" t="n">
-        <v>17.24684684684706</v>
+        <v>14.96966966966984</v>
       </c>
     </row>
     <row r="51">
@@ -4783,65 +4783,65 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01477028976755179</v>
+        <v>0.0002049923241770335</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01477028976755179</v>
+        <v>0.0002049923241770335</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.4828202840722788</v>
+        <v>1.061836705830036</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[0.11064079064887977, 0.8549997774956779]</t>
+          <t>[0.5627825706428027, 1.5608908410172688]</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.01347432802949666</v>
+        <v>0.0002353072146801249</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01347432802949666</v>
+        <v>0.0002353072146801249</v>
       </c>
       <c r="P51" t="n">
-        <v>-1.534631846798618</v>
+        <v>-1.509473947670772</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>[-2.5661057110403114, -0.5031579825569246]</t>
+          <t>[-2.1258424763030037, -0.8931054190385401]</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>0.005497730960449809</v>
+        <v>4.814324712576479e-05</v>
       </c>
       <c r="S51" t="n">
-        <v>0.005497730960449809</v>
+        <v>4.814324712576479e-05</v>
       </c>
       <c r="T51" t="n">
-        <v>35.60094798203997</v>
+        <v>36.21330376110741</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>[35.38107264380935, 35.82082332027059]</t>
+          <t>[35.89844712238471, 36.528160399830114]</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -4851,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>5.84476476476484</v>
+        <v>6.133333333333468</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.916316316316343</v>
+        <v>3.628888888888969</v>
       </c>
       <c r="Z51" t="n">
-        <v>9.773213213213335</v>
+        <v>8.637777777777966</v>
       </c>
     </row>
     <row r="52">
@@ -4869,65 +4869,65 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>4.251543561650806e-09</v>
+        <v>0.0002586942717908158</v>
       </c>
       <c r="I52" t="n">
-        <v>4.251543561650806e-09</v>
+        <v>0.0002586942717908158</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.8331400492078451</v>
+        <v>0.6706433646472938</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[0.6176601729150306, 1.0486199255006596]</t>
+          <t>[0.32218160656035266, 1.019105122734235]</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>7.591055917188783e-08</v>
+        <v>0.0006460185940919683</v>
       </c>
       <c r="O52" t="n">
-        <v>7.591055917188783e-08</v>
+        <v>0.0006460185940919683</v>
       </c>
       <c r="P52" t="n">
-        <v>-2.616421509296004</v>
+        <v>-1.861684535460618</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[-2.8931583997023123, -2.3396846188896956]</t>
+          <t>[-2.47805306409285, -1.2453160068283866]</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>3.140942895107912e-06</v>
       </c>
       <c r="S52" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>3.140942895107912e-06</v>
       </c>
       <c r="T52" t="n">
-        <v>36.04001532819889</v>
+        <v>36.29227296005791</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>[35.92353428271579, 36.15649637368199]</t>
+          <t>[36.09281559204567, 36.49173032807016]</t>
         </is>
       </c>
       <c r="V52" t="n">
@@ -4937,13 +4937,13 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>9.96484484484497</v>
+        <v>7.564444444444607</v>
       </c>
       <c r="Y52" t="n">
-        <v>8.910870870870982</v>
+        <v>5.060000000000109</v>
       </c>
       <c r="Z52" t="n">
-        <v>11.01881881881896</v>
+        <v>10.06888888888911</v>
       </c>
     </row>
     <row r="53">
@@ -4955,65 +4955,65 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>4.069872246104111e-06</v>
+        <v>0.0001391704482582856</v>
       </c>
       <c r="I53" t="n">
-        <v>4.069872246104111e-06</v>
+        <v>0.0001391704482582856</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.6944844394247767</v>
+        <v>0.8818577479339282</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[0.4200412116708847, 0.9689276671786686]</t>
+          <t>[0.4520450706688379, 1.3116704251990186]</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.233289484705359e-05</v>
+        <v>0.000343297903610873</v>
       </c>
       <c r="O53" t="n">
-        <v>3.233289484705359e-05</v>
+        <v>0.000343297903610873</v>
       </c>
       <c r="P53" t="n">
-        <v>-2.327105669325773</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[-2.717053105807389, -1.9371582328441561]</t>
+          <t>[-2.5157899127846193, -1.408842351159386]</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.905542556026376e-11</v>
+        <v>2.969283114939714e-07</v>
       </c>
       <c r="S53" t="n">
-        <v>3.905542556026376e-11</v>
+        <v>2.969283114939714e-07</v>
       </c>
       <c r="T53" t="n">
-        <v>35.74725984598152</v>
+        <v>36.29992353150191</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>[35.59911537045396, 35.895404321509076]</t>
+          <t>[36.05280267850967, 36.54704438449415]</t>
         </is>
       </c>
       <c r="V53" t="n">
@@ -5023,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>8.862962962963074</v>
+        <v>7.973333333333503</v>
       </c>
       <c r="Y53" t="n">
-        <v>7.377817817817909</v>
+        <v>5.724444444444564</v>
       </c>
       <c r="Z53" t="n">
-        <v>10.34810810810824</v>
+        <v>10.22222222222244</v>
       </c>
     </row>
     <row r="54">
@@ -5041,65 +5041,65 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.001496289068423029</v>
+        <v>3.510274149132186e-08</v>
       </c>
       <c r="I54" t="n">
-        <v>0.001496289068423029</v>
+        <v>3.510274149132186e-08</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.6814724184188918</v>
+        <v>1.380480495946241</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[0.2966565978976625, 1.0662882389401211]</t>
+          <t>[0.9624428486918468, 1.798518143200635]</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.00138347392098348</v>
+        <v>8.682745804566849e-07</v>
       </c>
       <c r="O54" t="n">
-        <v>0.00138347392098348</v>
+        <v>8.682745804566849e-07</v>
       </c>
       <c r="P54" t="n">
-        <v>3.100711067507043</v>
+        <v>-2.415158316273234</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>[2.35855304323558, 3.842869091778506]</t>
+          <t>[-2.7044741562434655, -2.125842476303003]</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.138124188810764e-08</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="S54" t="n">
-        <v>2.138124188810764e-08</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="T54" t="n">
-        <v>35.64349478103026</v>
+        <v>36.22741665545546</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>[35.40736084429463, 35.87962871776588]</t>
+          <t>[36.01412496814127, 36.440708342769646]</t>
         </is>
       </c>
       <c r="V54" t="n">
@@ -5109,13 +5109,13 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>12.12070070070085</v>
+        <v>9.813333333333546</v>
       </c>
       <c r="Y54" t="n">
-        <v>9.29413413413425</v>
+        <v>8.637777777777965</v>
       </c>
       <c r="Z54" t="n">
-        <v>14.94726726726746</v>
+        <v>10.98888888888913</v>
       </c>
     </row>
     <row r="55">
@@ -5127,65 +5127,65 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0002736521216409882</v>
+        <v>5.721823514992508e-08</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0002736521216409882</v>
+        <v>5.721823514992508e-08</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.5504015705521965</v>
+        <v>1.162782497913987</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[0.2756026780332874, 0.8252004630711056]</t>
+          <t>[0.860327906207285, 1.4652370896206897]</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.0004376099339327144</v>
+        <v>8.317452437900386e-08</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0004376099339327144</v>
+        <v>8.317452437900386e-08</v>
       </c>
       <c r="P55" t="n">
-        <v>-2.729632055371312</v>
+        <v>3.05039526925135</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>[-3.333421634439621, -2.1258424763030033]</t>
+          <t>[2.773658378845042, 3.327132159657658]</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>5.644269052140771e-09</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S55" t="n">
-        <v>5.644269052140771e-09</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T55" t="n">
-        <v>35.75140114767414</v>
+        <v>36.14138207035713</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>[35.58902461744843, 35.913777677899844]</t>
+          <t>[35.95637832314701, 36.32638581756726]</t>
         </is>
       </c>
       <c r="V55" t="n">
@@ -5195,13 +5195,13 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>10.39601601601615</v>
+        <v>13.13555555555584</v>
       </c>
       <c r="Y55" t="n">
-        <v>8.096436436436539</v>
+        <v>12.01111111111137</v>
       </c>
       <c r="Z55" t="n">
-        <v>12.69559559559576</v>
+        <v>14.26000000000031</v>
       </c>
     </row>
     <row r="56">
@@ -5213,65 +5213,65 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1.019217900077862e-06</v>
+        <v>2.471104998402751e-08</v>
       </c>
       <c r="I56" t="n">
-        <v>1.019217900077862e-06</v>
+        <v>2.471104998402751e-08</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.7713072007079802</v>
+        <v>1.19025412746165</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[0.4817684690956092, 1.0608459323203512]</t>
+          <t>[0.8529443796629614, 1.5275638752603378]</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1.695093394182834e-05</v>
+        <v>3.194069764234087e-07</v>
       </c>
       <c r="O56" t="n">
-        <v>1.695093394182834e-05</v>
+        <v>3.194069764234087e-07</v>
       </c>
       <c r="P56" t="n">
-        <v>-2.465474114528927</v>
+        <v>2.773658378845042</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>[-2.8428426014466193, -2.088105627611234]</t>
+          <t>[2.4717635893108882, 3.075553168379196]</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>7.136069513080656e-12</v>
+        <v>9.325873406851315e-15</v>
       </c>
       <c r="S56" t="n">
-        <v>7.136069513080656e-12</v>
+        <v>9.325873406851315e-15</v>
       </c>
       <c r="T56" t="n">
-        <v>36.03594161713196</v>
+        <v>36.06289375705885</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>[35.88584456880474, 36.18603866545918]</t>
+          <t>[35.87981560990989, 36.24597190420781]</t>
         </is>
       </c>
       <c r="V56" t="n">
@@ -5281,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>9.389949949950068</v>
+        <v>14.26000000000031</v>
       </c>
       <c r="Y56" t="n">
-        <v>7.952712712712814</v>
+        <v>13.03333333333362</v>
       </c>
       <c r="Z56" t="n">
-        <v>10.82718718718732</v>
+        <v>15.486666666667</v>
       </c>
     </row>
     <row r="57">
@@ -5299,65 +5299,65 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0002729721812517738</v>
+        <v>1.049160758270773e-13</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0002729721812517738</v>
+        <v>1.049160758270773e-13</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.7314896526582473</v>
+        <v>1.52117151702873</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[0.31470250844998304, 1.1482767968665115]</t>
+          <t>[1.2800516681573022, 1.7622913659001576]</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.001495932947365386</v>
+        <v>1.381228464936157e-11</v>
       </c>
       <c r="O57" t="n">
-        <v>0.001495932947365386</v>
+        <v>1.381228464936157e-11</v>
       </c>
       <c r="P57" t="n">
-        <v>2.647868883205811</v>
+        <v>2.182447749340658</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[2.0692372032653497, 3.2265005631462724]</t>
+          <t>[2.0189214050096576, 2.345974093671658]</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.581185653051989e-09</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>4.581185653051989e-09</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>35.95660192706265</v>
+        <v>36.39067775652742</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>[35.740856214192505, 36.172347639932795]</t>
+          <t>[36.26590885040409, 36.51544666265076]</t>
         </is>
       </c>
       <c r="V57" t="n">
@@ -5367,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>13.84538538538556</v>
+        <v>16.66222222222258</v>
       </c>
       <c r="Y57" t="n">
-        <v>11.64162162162177</v>
+        <v>15.99777777777812</v>
       </c>
       <c r="Z57" t="n">
-        <v>16.04914914914935</v>
+        <v>17.32666666666704</v>
       </c>
     </row>
     <row r="58">
@@ -5385,65 +5385,65 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01094427659330621</v>
+        <v>3.519698532628013e-09</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01094427659330621</v>
+        <v>3.519698532628013e-09</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.2233735560737564</v>
+        <v>1.133127846579622</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[0.055178986529480056, 0.3915681256180328]</t>
+          <t>[0.8388636161300305, 1.4273920770292143]</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.01168536727820668</v>
+        <v>8.104322035684675e-08</v>
       </c>
       <c r="O58" t="n">
-        <v>0.01168536727820668</v>
+        <v>8.104322035684675e-08</v>
       </c>
       <c r="P58" t="n">
-        <v>-3.056684744033312</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[-4.063000709147159, -2.0503687789194647]</t>
+          <t>[1.6918687163476571, 2.270500396288118]</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.901762137241803e-06</v>
+        <v>2.916555885690286e-12</v>
       </c>
       <c r="S58" t="n">
-        <v>2.901762137241803e-06</v>
+        <v>2.916555885690286e-12</v>
       </c>
       <c r="T58" t="n">
-        <v>35.35343019085181</v>
+        <v>36.49421873305691</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>[35.25554185470021, 35.45131852700341]</t>
+          <t>[36.33217537918474, 36.65626208692908]</t>
         </is>
       </c>
       <c r="V58" t="n">
@@ -5453,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>11.64162162162177</v>
+        <v>17.48000000000038</v>
       </c>
       <c r="Y58" t="n">
-        <v>7.808988988989088</v>
+        <v>16.3044444444448</v>
       </c>
       <c r="Z58" t="n">
-        <v>15.47425425425445</v>
+        <v>18.65555555555596</v>
       </c>
     </row>
     <row r="59">
@@ -5467,69 +5467,69 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.05882192008135767</v>
+        <v>4.913340412304734e-08</v>
       </c>
       <c r="I59" t="n">
-        <v>0.05882192008135767</v>
+        <v>4.913340412304734e-08</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.2306077240533355</v>
+        <v>1.107126994551209</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[-0.011789141820454319, 0.47300458992712535]</t>
+          <t>[0.7610139394093203, 1.4532400496930968]</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.06114165468882815</v>
+        <v>1.385311873214334e-06</v>
       </c>
       <c r="O59" t="n">
-        <v>0.06114165468882815</v>
+        <v>1.385311873214334e-06</v>
       </c>
       <c r="P59" t="n">
-        <v>-1.773631888513156</v>
+        <v>2.081816152829272</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[-3.2453689874921583, -0.3018947895341544]</t>
+          <t>[1.7421845146033474, 2.421447791055196]</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>0.0205016213231175</v>
+        <v>2.371103313691947e-11</v>
       </c>
       <c r="S59" t="n">
-        <v>0.0205016213231175</v>
+        <v>2.371103313691947e-11</v>
       </c>
       <c r="T59" t="n">
-        <v>35.33979569155269</v>
+        <v>36.28367226220047</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>[35.20718435115593, 35.47240703194946]</t>
+          <t>[36.09948417509628, 36.46786034930466]</t>
         </is>
       </c>
       <c r="V59" t="n">
@@ -5539,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>6.7550150150151</v>
+        <v>17.07111111111148</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.149789789789805</v>
+        <v>15.69111111111145</v>
       </c>
       <c r="Z59" t="n">
-        <v>12.3602402402404</v>
+        <v>18.45111111111152</v>
       </c>
     </row>
     <row r="60">
@@ -5553,69 +5553,69 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>23.9300000000003</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08007651684483108</v>
+        <v>9.092986942738079e-06</v>
       </c>
       <c r="I60" t="n">
-        <v>0.08007651684483108</v>
+        <v>9.092986942738079e-06</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.205039276103836</v>
+        <v>0.8869159935148012</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[-0.011670741197537637, 0.4217492934052096]</t>
+          <t>[0.5420141407564003, 1.2318178462732021]</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.06245956266994357</v>
+        <v>2.649445102553827e-05</v>
       </c>
       <c r="O60" t="n">
-        <v>0.06245956266994357</v>
+        <v>2.649445102553827e-05</v>
       </c>
       <c r="P60" t="n">
-        <v>-1.74847398938531</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[-3.3208426848756973, -0.17610529389492324]</t>
+          <t>[1.2641844311742707, 2.169868799776734]</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>0.03097770664206556</v>
+        <v>1.037461689890051e-07</v>
       </c>
       <c r="S60" t="n">
-        <v>0.03097770664206556</v>
+        <v>1.037461689890051e-07</v>
       </c>
       <c r="T60" t="n">
-        <v>35.39129166170113</v>
+        <v>36.22916793190987</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>[35.265419536887805, 35.51716378651446]</t>
+          <t>[36.022318258885704, 36.43601760493404]</t>
         </is>
       </c>
       <c r="V60" t="n">
@@ -5625,2937 +5625,13 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>6.659199199199282</v>
+        <v>18.55333333333374</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.6707107107107175</v>
+        <v>16.7133333333337</v>
       </c>
       <c r="Z60" t="n">
-        <v>12.64768768768785</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2022-08-06</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.0001060802273132877</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.0001060802273132877</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>0.6795670795525481</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[0.32598984310004653, 1.0331443160050497]</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>0.0006544377383463917</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.0006544377383463917</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-2.050368778919465</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[-2.578684660604235, -1.5220528972346945]</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>7.147159131193348e-08</v>
-      </c>
-      <c r="S61" t="n">
-        <v>7.147159131193348e-08</v>
-      </c>
-      <c r="T61" t="n">
-        <v>35.77680457950977</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>[35.59266873112247, 35.96094042789707]</t>
-        </is>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>7.73393393393402</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>5.741141141141204</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>9.726726726726836</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2022-08-07</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.3184025117736913</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.3184025117736913</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>0.1189430295047664</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>[-0.08743096433264341, 0.32531702334217627]</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>0.2440431840510757</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.2440431840510757</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.3333421634439624</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[-2.7485004797171957, 3.4151848066051205]</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>0.8242020229934135</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.8242020229934135</v>
-      </c>
-      <c r="T62" t="n">
-        <v>35.34883067043909</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>[35.23574303461562, 35.46191830626255]</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="n">
-        <v>22.44264264264289</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>10.81801801801814</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>34.06726726726765</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2022-08-08</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.001134440189556218</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.001134440189556218</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>0.4937261826460819</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>[0.17138308636406308, 0.8160692789281008]</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>0.004452747492695197</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.004452747492695197</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-0.9560001668581553</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[-1.597526594618233, -0.3144737390980774]</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>0.005435122981277907</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0.005435122981277907</v>
-      </c>
-      <c r="T63" t="n">
-        <v>35.57467856813498</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>[35.409033371257294, 35.740323765012675]</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="n">
-        <v>3.606006006006048</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>1.186186186186201</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>6.025825825825894</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>7.595006440641594e-05</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7.595006440641594e-05</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>0.5528611613383063</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>[0.2831870620903594, 0.8225352605862533]</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>0.0003460704428785988</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.0003460704428785988</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-2.088105627611234</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[-2.591263610168158, -1.5849476450543096]</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>2.39031776594345e-08</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2.39031776594345e-08</v>
-      </c>
-      <c r="T64" t="n">
-        <v>35.43401100012444</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>[35.2879132257072, 35.580108774541685]</t>
-        </is>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>7.876276276276364</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>5.978378378378444</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>9.774174174174284</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.8677494938768551</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.8677494938768551</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>0.05112522729057645</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>[-0.21059013353611178, 0.3128405881172647]</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>0.6886721647050416</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.6886721647050416</v>
-      </c>
-      <c r="P65" t="n">
-        <v>3.100711067507043</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[-0.037736848691769076, 6.239158983705855]</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>0.05257058848408991</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0.05257058848408991</v>
-      </c>
-      <c r="T65" t="n">
-        <v>35.52494019920623</v>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>[35.38347435405552, 35.66640604435693]</t>
-        </is>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>12.00420420420434</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0.1660660660660671</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>23.84234234234261</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.06526861552878904</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.06526861552878904</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>0.3764162779656921</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>[0.0075284775642749935, 0.7453040783671092]</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>0.04589457213482206</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.04589457213482206</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-1.610105544182156</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[-2.981211046649774, -0.23900004171453837]</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>0.023533903206018</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0.023533903206018</v>
-      </c>
-      <c r="T66" t="n">
-        <v>36.18756167053304</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>[35.96749146331041, 36.407631877755676]</t>
-        </is>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="n">
-        <v>6.07327327327334</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0.9015015015015084</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>11.24504504504517</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2022-08-12</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.2580765561142853</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.2580765561142853</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>0.2764717067033189</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>[-0.1604295596468397, 0.7133729730534775]</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>0.2023652472392747</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.2023652472392747</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-1.874263485024541</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[-4.9435271786217765, 1.1950002085726936]</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>0.2180021579673692</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0.2180021579673692</v>
-      </c>
-      <c r="T67" t="n">
-        <v>35.49479687869334</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>[35.25683768979765, 35.73275606758902]</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="n">
-        <v>7.06966966966975</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>-4.507507507507556</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>18.64684684684705</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3.889080602004213e-08</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.889080602004213e-08</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>0.9348971424080297</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[0.6951651929429801, 1.1746290918730793]</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>6.611453318150495e-08</v>
-      </c>
-      <c r="O68" t="n">
-        <v>6.611453318150495e-08</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-1.434000250287233</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[-1.7233160902574642, -1.1446844103170015]</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>1.136696292647343e-09</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1.136696292647343e-09</v>
-      </c>
-      <c r="T68" t="n">
-        <v>35.8625873654273</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>[35.71495865831851, 36.010216072536096]</t>
-        </is>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>5.409009009009072</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>4.317717717717768</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>6.500300300300376</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>5.892440756882777e-06</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5.892440756882777e-06</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>0.7947757675677245</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>[0.4508107897472762, 1.1387407453881728]</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>9.505915778951213e-05</v>
-      </c>
-      <c r="O69" t="n">
-        <v>9.505915778951213e-05</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-0.754736973835386</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>[-1.1572633598809245, -0.3522105877898474]</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>0.0008263556427554608</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.0008263556427554608</v>
-      </c>
-      <c r="T69" t="n">
-        <v>35.74063661854299</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>[35.56704474954839, 35.9142284875376]</t>
-        </is>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>2.84684684684688</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>1.328528528528546</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>4.365165165165214</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2022-08-15</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5.302903649861967e-06</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.302903649861967e-06</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>0.7058808393745757</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>[0.4239211720803624, 0.987840506668789]</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>3.688603296070347e-05</v>
-      </c>
-      <c r="O70" t="n">
-        <v>3.688603296070347e-05</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-1.144684410317002</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>[-1.58494764505431, -0.704421175579693]</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>2.307707862891917e-05</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2.307707862891917e-05</v>
-      </c>
-      <c r="T70" t="n">
-        <v>35.5221992729586</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>[35.36961961601919, 35.67477892989801]</t>
-        </is>
-      </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>4.317717717717766</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>2.657057057057086</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>5.978378378378446</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1.771412265372252e-05</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.771412265372252e-05</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>0.5049120344626452</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>[0.3072009195328178, 0.7026231493924726]</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>2.887413437435704e-05</v>
-      </c>
-      <c r="O71" t="n">
-        <v>2.887413437435704e-05</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-1.434000250287233</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>[-1.8868424345884645, -0.9811580659860013]</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>1.6029966225517e-06</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1.6029966225517e-06</v>
-      </c>
-      <c r="T71" t="n">
-        <v>35.58595143919413</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>[35.467193042179055, 35.70470983620921]</t>
-        </is>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>5.409009009009072</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>3.700900900900944</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>7.1171171171172</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.0775345585335494</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.0775345585335494</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>0.371806900830812</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[-0.02740422431991618, 0.7710180259815402]</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>0.06633299537580184</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.06633299537580184</v>
-      </c>
-      <c r="P72" t="n">
-        <v>-2.981211046649773</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>[-4.452948145628776, -1.5094739476707715]</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>0.0003908564499650602</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.0003908564499650602</v>
-      </c>
-      <c r="T72" t="n">
-        <v>35.57818959896804</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>[35.34959591268887, 35.80678328524721]</t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="n">
-        <v>11.24504504504517</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>5.693693693693756</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>16.79639639639658</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2022-08-18</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.03413347052874693</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.03413347052874693</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>0.3410289152717141</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>[0.03578575289694541, 0.6462720776464828]</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>0.03027707718364425</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.03027707718364425</v>
-      </c>
-      <c r="P73" t="n">
-        <v>-1.647842392873925</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>[-2.855421551010542, -0.44026323473730855]</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>0.009855982059877588</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.009855982059877588</v>
-      </c>
-      <c r="T73" t="n">
-        <v>35.638310186365</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>[35.46176122410349, 35.81485914862652]</t>
-        </is>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>6.215615615615686</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>1.660660660660682</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>10.77057057057069</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.00933984109638919</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.00933984109638919</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>0.5680951094660678</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>[0.13283430395105, 1.0033559149810856]</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>0.01299170216672674</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.01299170216672674</v>
-      </c>
-      <c r="P74" t="n">
-        <v>-1.861684535460618</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>[-2.8428426014466197, -0.8805264694746171]</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>0.0007392709729219238</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0.0007392709729219238</v>
-      </c>
-      <c r="T74" t="n">
-        <v>35.92568114930606</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>[35.683595808945725, 36.16776648966639]</t>
-        </is>
-      </c>
-      <c r="V74" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="n">
-        <v>7.0222222222223</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>3.321321321321358</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>10.72312312312324</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2022-08-20</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.4219428876044872</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.4219428876044872</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>0.2307030406797388</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[-0.24246436197320875, 0.7038704433326863]</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>0.3221421886419527</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.3221421886419527</v>
-      </c>
-      <c r="P75" t="n">
-        <v>-1.283052855520156</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>[-4.358606023899354, 1.7925003128590422]</t>
-        </is>
-      </c>
-      <c r="R75" t="n">
-        <v>0.3954362802130134</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0.3954362802130134</v>
-      </c>
-      <c r="T75" t="n">
-        <v>35.74513246379529</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>[35.49376172948956, 35.99650319810101]</t>
-        </is>
-      </c>
-      <c r="V75" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="n">
-        <v>4.839639639639692</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>-6.761261261261344</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>16.44054054054073</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.004621380859252011</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.004621380859252011</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>0.4340027687541479</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>[0.10389647188149453, 0.7641090656268013]</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>0.01243032313597614</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.01243032313597614</v>
-      </c>
-      <c r="P76" t="n">
-        <v>-0.5534737808126167</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>[-1.2830528555201557, 0.17610529389492235]</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>0.1295945981546547</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.1295945981546547</v>
-      </c>
-      <c r="T76" t="n">
-        <v>35.49093331109216</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>[35.320511622316964, 35.66135499986736]</t>
-        </is>
-      </c>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="n">
-        <v>2.087687687687712</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>-0.6642642642642693</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>4.839639639639693</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2022-08-22</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.002054050203153079</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.002054050203153079</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>0.5494674705397458</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>[0.2312944292983019, 0.8676405117811896]</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>0.00171826448648349</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.00171826448648349</v>
-      </c>
-      <c r="P77" t="n">
-        <v>-0.006289474781961069</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>[-0.7861843477451931, 0.7736053981812709]</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>0.9867775624437372</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.9867775624437372</v>
-      </c>
-      <c r="T77" t="n">
-        <v>35.58439415166343</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>[35.386473941347575, 35.78231436197929]</t>
-        </is>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0.02372372372372311</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>-2.918018018018052</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>2.965465465465498</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2022-08-23</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>5.127851476771639e-10</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.127851476771639e-10</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1.023239593430031</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[0.7923918832372365, 1.2540873036228248]</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>7.905263110785654e-09</v>
-      </c>
-      <c r="O78" t="n">
-        <v>7.905263110785654e-09</v>
-      </c>
-      <c r="P78" t="n">
-        <v>-0.5408948312486928</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>[-0.779894872963232, -0.3018947895341535]</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>0.0001201942470365758</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.0001201942470365758</v>
-      </c>
-      <c r="T78" t="n">
-        <v>35.93269155625242</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>[35.80530155854298, 36.060081553961865]</t>
-        </is>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>2.040240240240262</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>1.138738738738749</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>2.941741741741775</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2022-08-24</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1.281808210684687e-07</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1.281808210684687e-07</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>0.673548939914248</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>[0.4490329760469649, 0.8980649037815311]</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>3.45312045690882e-06</v>
-      </c>
-      <c r="O79" t="n">
-        <v>3.45312045690882e-06</v>
-      </c>
-      <c r="P79" t="n">
-        <v>-0.9308422677303092</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>[-1.2704739059562327, -0.5912106295043857]</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>1.172663426274312e-05</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1.172663426274312e-05</v>
-      </c>
-      <c r="T79" t="n">
-        <v>35.97529182559795</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>[35.860737905620056, 36.08984574557584]</t>
-        </is>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>3.511111111111152</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>2.230030030030057</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>4.792192192192247</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>23.70000000000027</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>4.985798729983948e-06</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.985798729983948e-06</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>0.5662275486579027</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>[0.3365685375471408, 0.7958865597686646]</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>4.440130709570944e-05</v>
-      </c>
-      <c r="O80" t="n">
-        <v>4.440130709570944e-05</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0.3585000625718076</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>[-0.04402632347373281, 0.7610264486173479]</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>0.07811399540093622</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.07811399540093622</v>
-      </c>
-      <c r="T80" t="n">
-        <v>35.56481059376418</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>[35.441741195833686, 35.68787999169467]</t>
-        </is>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
-      <c r="X80" t="n">
-        <v>22.347747747748</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>20.82942942942966</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>23.86606606606634</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.001673180976481836</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.001673180976481836</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>0.4362225546177996</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>[0.13467205235270185, 0.7377730568828973]</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0.006692582578567086</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.006692582578567086</v>
-      </c>
-      <c r="P81" t="n">
-        <v>-0.9434212172942322</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>[-1.597526594618233, -0.28931583997023136]</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>0.006830514142965205</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.006830514142965205</v>
-      </c>
-      <c r="T81" t="n">
-        <v>36.00502296010392</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>[35.85048434247658, 36.15956157773127]</t>
-        </is>
-      </c>
-      <c r="V81" t="n">
-        <v>0</v>
-      </c>
-      <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="n">
-        <v>3.711711711711775</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>1.138258258258277</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>6.285165165165273</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1.000113281079962e-08</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1.000113281079962e-08</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>0.9274967823854965</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>[0.6661475865963666, 1.1888459781746263]</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>2.925460216296472e-07</v>
-      </c>
-      <c r="O82" t="n">
-        <v>2.925460216296472e-07</v>
-      </c>
-      <c r="P82" t="n">
-        <v>-2.050368778919465</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>[-2.3396846188896956, -1.7610529389492338]</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>1.510347402700063e-12</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1.510347402700063e-12</v>
-      </c>
-      <c r="T82" t="n">
-        <v>36.14987520473795</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>[36.0133281808757, 36.28642222860019]</t>
-        </is>
-      </c>
-      <c r="V82" t="n">
-        <v>0</v>
-      </c>
-      <c r="W82" t="n">
-        <v>0</v>
-      </c>
-      <c r="X82" t="n">
-        <v>8.066786786786928</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>6.928528528528651</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>9.205045045045205</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.000119097867215423</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.000119097867215423</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>0.622369864593157</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>[0.31354378437817587, 0.9311959448081382]</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0.0004115351843900772</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.0004115351843900772</v>
-      </c>
-      <c r="P83" t="n">
-        <v>-2.64157940842385</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>[-3.1698952901086206, -2.1132635267390794]</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>9.738281292470674e-10</v>
-      </c>
-      <c r="S83" t="n">
-        <v>9.738281292470674e-10</v>
-      </c>
-      <c r="T83" t="n">
-        <v>35.93729883832184</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>[35.768551508263876, 36.1060461683798]</t>
-        </is>
-      </c>
-      <c r="V83" t="n">
-        <v>0</v>
-      </c>
-      <c r="W83" t="n">
-        <v>0</v>
-      </c>
-      <c r="X83" t="n">
-        <v>10.39279279279297</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>8.314234234234373</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>12.47135135135157</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1.204462766191128e-07</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1.204462766191128e-07</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>0.88599525819928</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>[0.6117368993308681, 1.160253617067692]</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>1.199546356467351e-06</v>
-      </c>
-      <c r="O84" t="n">
-        <v>1.199546356467351e-06</v>
-      </c>
-      <c r="P84" t="n">
-        <v>-2.767368904063081</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>[-3.069263693597235, -2.4654741145289263]</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>9.769962616701378e-15</v>
-      </c>
-      <c r="S84" t="n">
-        <v>9.769962616701378e-15</v>
-      </c>
-      <c r="T84" t="n">
-        <v>35.67621038865953</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>[35.52783142621587, 35.824589351103185]</t>
-        </is>
-      </c>
-      <c r="V84" t="n">
-        <v>0</v>
-      </c>
-      <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="n">
-        <v>10.88768768768787</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>9.699939939940105</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>12.07543543543564</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>8.478640012299365e-11</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8.478640012299365e-11</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1.270899862433922</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>[1.0015424590305813, 1.540257265837262]</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>2.697581269472948e-09</v>
-      </c>
-      <c r="O85" t="n">
-        <v>2.697581269472948e-09</v>
-      </c>
-      <c r="P85" t="n">
-        <v>2.169868799776735</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>[1.9560266571900415, 2.383710942363428]</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>1.332267629550188e-15</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1.332267629550188e-15</v>
-      </c>
-      <c r="T85" t="n">
-        <v>35.97697676626343</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>[35.83212556677225, 36.12182796575462]</t>
-        </is>
-      </c>
-      <c r="V85" t="n">
-        <v>0</v>
-      </c>
-      <c r="W85" t="n">
-        <v>0</v>
-      </c>
-      <c r="X85" t="n">
-        <v>16.18306306306334</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>15.341741741742</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>17.02438438438467</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1.238836822015088e-08</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.238836822015088e-08</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1.327824459489289</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>[0.9680259326597529, 1.687622986318825]</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>1.591583651538997e-07</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.591583651538997e-07</v>
-      </c>
-      <c r="P86" t="n">
-        <v>1.956026657190042</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>[1.6541318676558872, 2.257921446724196]</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>8.354428260304303e-12</v>
-      </c>
-      <c r="S86" t="n">
-        <v>8.354428260304303e-12</v>
-      </c>
-      <c r="T86" t="n">
-        <v>35.83375230722886</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>[35.63358148975216, 36.03392312470557]</t>
-        </is>
-      </c>
-      <c r="V86" t="n">
-        <v>0</v>
-      </c>
-      <c r="W86" t="n">
-        <v>0</v>
-      </c>
-      <c r="X86" t="n">
-        <v>17.02438438438467</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>15.83663663663691</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>18.21213213213244</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2022-09-01</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.0007624419505186664</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.0007624419505186664</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>0.5544169469789964</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>[0.19744270570444655, 0.9113911882535461]</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0.004015271070348714</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.004015271070348714</v>
-      </c>
-      <c r="P87" t="n">
-        <v>2.396289891927349</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>[1.8176582119868865, 2.974921571867812]</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>2.474861071632972e-08</v>
-      </c>
-      <c r="S87" t="n">
-        <v>2.474861071632972e-08</v>
-      </c>
-      <c r="T87" t="n">
-        <v>35.34344148988387</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>[35.163003543207864, 35.52387943655987]</t>
-        </is>
-      </c>
-      <c r="V87" t="n">
-        <v>0</v>
-      </c>
-      <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="n">
-        <v>15.29225225225252</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>13.01573573573596</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>17.56876876876908</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1.278012804251105e-06</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.278012804251105e-06</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>0.5733657899707083</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>[0.3569975568339565, 0.7897340231074601]</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>1.813012045226436e-05</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.813012045226436e-05</v>
-      </c>
-      <c r="P88" t="n">
-        <v>2.081816152829273</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>[1.7044476659115801, 2.459184639746965]</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>1.660542814363453e-10</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1.660542814363453e-10</v>
-      </c>
-      <c r="T88" t="n">
-        <v>35.30990832409598</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>[35.195296791719, 35.424519856472955]</t>
-        </is>
-      </c>
-      <c r="V88" t="n">
-        <v>0</v>
-      </c>
-      <c r="W88" t="n">
-        <v>0</v>
-      </c>
-      <c r="X88" t="n">
-        <v>16.52948948948977</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>15.04480480480506</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>18.01417417417448</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1.892930256985892e-13</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.892930256985892e-13</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1.04408886280136</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>[0.8769287159378649, 1.2112490096648543]</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>1.666666804567285e-11</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1.666666804567285e-11</v>
-      </c>
-      <c r="P89" t="n">
-        <v>2.106974051957119</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>[1.9560266571900415, 2.257921446724196]</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>0</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" t="n">
-        <v>35.68392076925426</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>[35.59717598079246, 35.77066555771607]</t>
-        </is>
-      </c>
-      <c r="V89" t="n">
-        <v>0</v>
-      </c>
-      <c r="W89" t="n">
-        <v>0</v>
-      </c>
-      <c r="X89" t="n">
-        <v>16.43051051051079</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>15.83663663663691</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>17.02438438438468</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2.599764847843744e-11</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.599764847843744e-11</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>0.5875448529448803</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>[0.47346029107952603, 0.7016294148102347]</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>5.750651066449564e-10</v>
-      </c>
-      <c r="O90" t="n">
-        <v>5.750651066449564e-10</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1.993763505881811</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>[1.7925003128590413, 2.19502669890458]</t>
-        </is>
-      </c>
-      <c r="R90" t="n">
-        <v>1.998401444325282e-15</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.998401444325282e-15</v>
-      </c>
-      <c r="T90" t="n">
-        <v>35.43868761542549</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>[35.37563521191845, 35.50174001893252]</t>
-        </is>
-      </c>
-      <c r="V90" t="n">
-        <v>0</v>
-      </c>
-      <c r="W90" t="n">
-        <v>0</v>
-      </c>
-      <c r="X90" t="n">
-        <v>16.87591591591621</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>16.08408408408436</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>17.66774774774805</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2022-09-05</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>9.84121673042182e-11</v>
-      </c>
-      <c r="I91" t="n">
-        <v>9.84121673042182e-11</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>0.6620245956685835</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>[0.5291726006688826, 0.7948765906682844]</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>1.033775287595518e-09</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1.033775287595518e-09</v>
-      </c>
-      <c r="P91" t="n">
-        <v>1.817658211986886</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>[1.6038160694001933, 2.0315003545735797]</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>4.374278717023117e-14</v>
-      </c>
-      <c r="S91" t="n">
-        <v>4.374278717023117e-14</v>
-      </c>
-      <c r="T91" t="n">
-        <v>35.58802958719117</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>[35.51163336468393, 35.664425809698415]</t>
-        </is>
-      </c>
-      <c r="V91" t="n">
-        <v>0</v>
-      </c>
-      <c r="W91" t="n">
-        <v>0</v>
-      </c>
-      <c r="X91" t="n">
-        <v>17.56876876876908</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>16.72744744744774</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>18.41009009009041</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>3.99353349100906e-06</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.99353349100906e-06</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>0.5592803433993581</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>[0.3242997867147963, 0.7942609000839198]</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>6.749991462529081e-05</v>
-      </c>
-      <c r="O92" t="n">
-        <v>6.749991462529081e-05</v>
-      </c>
-      <c r="P92" t="n">
-        <v>2.19502669890458</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>[1.7925003128590404, 2.5975530849501194]</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>2.050470904180202e-10</v>
-      </c>
-      <c r="S92" t="n">
-        <v>2.050470904180202e-10</v>
-      </c>
-      <c r="T92" t="n">
-        <v>35.46615309066222</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>[35.34567484773531, 35.58663133358914]</t>
-        </is>
-      </c>
-      <c r="V92" t="n">
-        <v>0</v>
-      </c>
-      <c r="W92" t="n">
-        <v>0</v>
-      </c>
-      <c r="X92" t="n">
-        <v>16.08408408408436</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>14.50042042042067</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>17.66774774774805</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2022-09-07</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3.155997685411194e-11</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.155997685411194e-11</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>0.8658322062769948</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>[0.7021506467796961, 1.0295137657742934]</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>3.556583916264344e-10</v>
-      </c>
-      <c r="O93" t="n">
-        <v>3.556583916264344e-10</v>
-      </c>
-      <c r="P93" t="n">
-        <v>1.905710858934349</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>[1.7044476659115784, 2.1069740519571187]</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>5.10702591327572e-15</v>
-      </c>
-      <c r="S93" t="n">
-        <v>5.10702591327572e-15</v>
-      </c>
-      <c r="T93" t="n">
-        <v>35.6067148208614</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>[35.51285497017929, 35.70057467154351]</t>
-        </is>
-      </c>
-      <c r="V93" t="n">
-        <v>0</v>
-      </c>
-      <c r="W93" t="n">
-        <v>0</v>
-      </c>
-      <c r="X93" t="n">
-        <v>17.22234234234264</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>16.43051051051079</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>18.01417417417449</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>24.72000000000043</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1.1653850218174e-07</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1.1653850218174e-07</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>0.5543027039083128</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>[0.38100319721093, 0.7276022106056956]</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>1.069036656509148e-05</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.069036656509148e-05</v>
-      </c>
-      <c r="P94" t="n">
-        <v>2.761079429281119</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>[2.408868841491273, 3.113290017070965]</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>3.061884079613719e-10</v>
-      </c>
-      <c r="S94" t="n">
-        <v>3.061884079613719e-10</v>
-      </c>
-      <c r="T94" t="n">
-        <v>35.55661434503673</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>[35.44699541360566, 35.66623327646779]</t>
-        </is>
-      </c>
-      <c r="V94" t="n">
-        <v>0</v>
-      </c>
-      <c r="W94" t="n">
-        <v>0</v>
-      </c>
-      <c r="X94" t="n">
-        <v>13.8570570570573</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>12.47135135135157</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>15.24276276276302</v>
+        <v>20.39333333333377</v>
       </c>
     </row>
   </sheetData>
